--- a/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/Peer-like-similarity/Uniform Results/Workbook.xlsx
+++ b/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/Peer-like-similarity/Uniform Results/Workbook.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="80" windowWidth="26740" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_100" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
-    <definedName name="_1000" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
-    <definedName name="_200" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
-    <definedName name="_300" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
-    <definedName name="_400" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
-    <definedName name="_500" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
-    <definedName name="_600" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
-    <definedName name="_700" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
-    <definedName name="_800" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
-    <definedName name="_900" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
+    <definedName name="Uniform_Results_100" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
+    <definedName name="Uniform_Results_1000" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
+    <definedName name="Uniform_Results_200" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
+    <definedName name="Uniform_Results_300" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
+    <definedName name="Uniform_Results_400" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
+    <definedName name="Uniform_Results_500" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
+    <definedName name="Uniform_Results_600" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
+    <definedName name="Uniform_Results_700" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
+    <definedName name="Uniform_Results_800" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
+    <definedName name="Uniform_Results_900" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,73 +32,71 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="100.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:100.csv" comma="1">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="1000.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:1000.csv" comma="1">
+  <connection id="1" name="Uniform Results 100.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 100.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="200.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:200.csv" comma="1">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" name="300.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:300.csv" comma="1">
+  <connection id="2" name="Uniform Results 1000.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 1000.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="400.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:400.csv" comma="1">
+  <connection id="3" name="Uniform Results 200.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 200.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="500.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:500.csv" comma="1">
+  <connection id="4" name="Uniform Results 300.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 300.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="600.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:600.csv" comma="1">
+  <connection id="5" name="Uniform Results 400.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 400.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="700.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:700.csv" comma="1">
+  <connection id="6" name="Uniform Results 500.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 500.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="800.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:800.csv" comma="1">
+  <connection id="7" name="Uniform Results 600.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 600.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="900.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:900.csv" comma="1">
+  <connection id="8" name="Uniform Results 700.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 700.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="Uniform Results 800.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 800.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="Uniform Results 900.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:Peer-like-similarity:Uniform Results:Uniform Results 900.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -108,12 +106,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
-    <t>Taste 1</t>
+    <t xml:space="preserve">Taste 1 </t>
   </si>
   <si>
-    <t>Taste 0</t>
+    <t xml:space="preserve"> Taste 0</t>
   </si>
 </sst>
 </file>
@@ -161,43 +159,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="900" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 900" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -575,6 +573,30 @@
       </c>
     </row>
     <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
@@ -614,3598 +636,3598 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
-        <v>2.1666666666666599</v>
+        <v>2.5666666666666602</v>
       </c>
       <c r="B3">
-        <v>1.9</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="D3">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="E3">
+        <v>2.36666666666666</v>
+      </c>
+      <c r="G3">
+        <v>2.0333333333333301</v>
+      </c>
+      <c r="H3">
+        <v>2.5666666666666602</v>
+      </c>
+      <c r="J3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K3">
         <v>2.7666666666666599</v>
-      </c>
-      <c r="E3">
-        <v>2.2333333333333298</v>
-      </c>
-      <c r="G3">
-        <v>2.7666666666666599</v>
-      </c>
-      <c r="H3">
-        <v>2.7</v>
-      </c>
-      <c r="J3">
-        <v>2.5</v>
-      </c>
-      <c r="K3">
-        <v>2.36666666666666</v>
       </c>
       <c r="M3">
         <v>2.9666666666666601</v>
       </c>
       <c r="N3">
-        <v>2.5666666666666602</v>
+        <v>2.43333333333333</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="S3">
-        <v>2.43333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="T3">
-        <v>2.2999999999999998</v>
+        <v>2.6333333333333302</v>
       </c>
       <c r="V3">
         <v>2.1666666666666599</v>
       </c>
       <c r="W3">
+        <v>2.5</v>
+      </c>
+      <c r="Y3">
+        <v>2.6333333333333302</v>
+      </c>
+      <c r="Z3">
         <v>2.9666666666666601</v>
       </c>
-      <c r="Y3">
+      <c r="AB3">
+        <v>2.6333333333333302</v>
+      </c>
+      <c r="AC3">
         <v>2.9</v>
-      </c>
-      <c r="Z3">
-        <v>2.8333333333333299</v>
-      </c>
-      <c r="AB3">
-        <v>2.1666666666666599</v>
-      </c>
-      <c r="AC3">
-        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4">
-        <v>8.93333333333333</v>
+        <v>8.15</v>
       </c>
       <c r="B4">
-        <v>6.2666666666666604</v>
+        <v>8.9166666666666607</v>
       </c>
       <c r="D4">
-        <v>9.15</v>
+        <v>7.9833333333333298</v>
       </c>
       <c r="E4">
+        <v>7.2166666666666597</v>
+      </c>
+      <c r="G4">
+        <v>6.6</v>
+      </c>
+      <c r="H4">
+        <v>8.5333333333333297</v>
+      </c>
+      <c r="J4">
         <v>7.45</v>
       </c>
-      <c r="G4">
-        <v>8.25</v>
-      </c>
-      <c r="H4">
-        <v>9.0166666666666604</v>
-      </c>
-      <c r="J4">
-        <v>7.9666666666666597</v>
-      </c>
       <c r="K4">
-        <v>6.0333333333333297</v>
+        <v>8.2833333333333297</v>
       </c>
       <c r="M4">
-        <v>8.93333333333333</v>
+        <v>7.8333333333333304</v>
       </c>
       <c r="N4">
-        <v>6.93333333333333</v>
+        <v>9.1</v>
       </c>
       <c r="P4">
-        <v>8.6333333333333293</v>
+        <v>7.9833333333333298</v>
       </c>
       <c r="Q4">
-        <v>8.9666666666666597</v>
+        <v>8.4833333333333307</v>
       </c>
       <c r="S4">
-        <v>9.68333333333333</v>
+        <v>8.65</v>
       </c>
       <c r="T4">
-        <v>5.7833333333333297</v>
+        <v>7.4833333333333298</v>
       </c>
       <c r="V4">
-        <v>6.9</v>
+        <v>7.25</v>
       </c>
       <c r="W4">
-        <v>9.1</v>
+        <v>7.95</v>
       </c>
       <c r="Y4">
-        <v>8.9666666666666597</v>
+        <v>7.75</v>
       </c>
       <c r="Z4">
-        <v>8.36666666666666</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AB4">
-        <v>5.65</v>
+        <v>6.6333333333333302</v>
       </c>
       <c r="AC4">
-        <v>8.61666666666666</v>
+        <v>10.633333333333301</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5">
-        <v>13.783333333333299</v>
+        <v>14.65</v>
       </c>
       <c r="B5">
-        <v>14.4166666666666</v>
+        <v>15.6166666666666</v>
       </c>
       <c r="D5">
-        <v>14.35</v>
+        <v>15.3666666666666</v>
       </c>
       <c r="E5">
-        <v>15.1166666666666</v>
+        <v>13.5</v>
       </c>
       <c r="G5">
-        <v>16.95</v>
+        <v>12.4</v>
       </c>
       <c r="H5">
-        <v>13.716666666666599</v>
+        <v>15.9333333333333</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>13.816666666666601</v>
       </c>
       <c r="K5">
-        <v>11.466666666666599</v>
+        <v>15.25</v>
       </c>
       <c r="M5">
-        <v>15.783333333333299</v>
+        <v>12.35</v>
       </c>
       <c r="N5">
-        <v>14.283333333333299</v>
+        <v>18.1166666666666</v>
       </c>
       <c r="P5">
-        <v>15.5833333333333</v>
+        <v>14.633333333333301</v>
       </c>
       <c r="Q5">
-        <v>15.55</v>
+        <v>16.033333333333299</v>
       </c>
       <c r="S5">
-        <v>17.8333333333333</v>
+        <v>15.8</v>
       </c>
       <c r="T5">
-        <v>10.3</v>
+        <v>14.3333333333333</v>
       </c>
       <c r="V5">
-        <v>13.7666666666666</v>
+        <v>14.4</v>
       </c>
       <c r="W5">
-        <v>14.8333333333333</v>
+        <v>14.2666666666666</v>
       </c>
       <c r="Y5">
-        <v>16.133333333333301</v>
+        <v>14.65</v>
       </c>
       <c r="Z5">
-        <v>15.466666666666599</v>
+        <v>14.883333333333301</v>
       </c>
       <c r="AB5">
-        <v>10.483333333333301</v>
+        <v>14.566666666666601</v>
       </c>
       <c r="AC5">
-        <v>17.316666666666599</v>
+        <v>16.033333333333299</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6">
-        <v>21.45</v>
+        <v>21.5</v>
       </c>
       <c r="B6">
-        <v>21.0833333333333</v>
+        <v>23.3</v>
       </c>
       <c r="D6">
-        <v>21.383333333333301</v>
+        <v>22.566666666666599</v>
       </c>
       <c r="E6">
+        <v>20.233333333333299</v>
+      </c>
+      <c r="G6">
+        <v>17.3333333333333</v>
+      </c>
+      <c r="H6">
+        <v>24.6666666666666</v>
+      </c>
+      <c r="J6">
+        <v>22.3333333333333</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>19.716666666666601</v>
+      </c>
+      <c r="N6">
+        <v>25.35</v>
+      </c>
+      <c r="P6">
+        <v>21.066666666666599</v>
+      </c>
+      <c r="Q6">
+        <v>24.466666666666601</v>
+      </c>
+      <c r="S6">
+        <v>24.15</v>
+      </c>
+      <c r="T6">
+        <v>20.45</v>
+      </c>
+      <c r="V6">
+        <v>20.766666666666602</v>
+      </c>
+      <c r="W6">
+        <v>22.1666666666666</v>
+      </c>
+      <c r="Y6">
+        <v>19.783333333333299</v>
+      </c>
+      <c r="Z6">
+        <v>23.4166666666666</v>
+      </c>
+      <c r="AB6">
         <v>22.35</v>
       </c>
-      <c r="G6">
-        <v>24.066666666666599</v>
-      </c>
-      <c r="H6">
-        <v>20.933333333333302</v>
-      </c>
-      <c r="J6">
-        <v>21.283333333333299</v>
-      </c>
-      <c r="K6">
-        <v>19.316666666666599</v>
-      </c>
-      <c r="M6">
-        <v>23.566666666666599</v>
-      </c>
-      <c r="N6">
-        <v>20.9</v>
-      </c>
-      <c r="P6">
-        <v>23</v>
-      </c>
-      <c r="Q6">
-        <v>22.4</v>
-      </c>
-      <c r="S6">
-        <v>25.266666666666602</v>
-      </c>
-      <c r="T6">
-        <v>17</v>
-      </c>
-      <c r="V6">
-        <v>20.566666666666599</v>
-      </c>
-      <c r="W6">
-        <v>22.766666666666602</v>
-      </c>
-      <c r="Y6">
-        <v>25.633333333333301</v>
-      </c>
-      <c r="Z6">
-        <v>20.8333333333333</v>
-      </c>
-      <c r="AB6">
-        <v>17.883333333333301</v>
-      </c>
       <c r="AC6">
-        <v>23.85</v>
+        <v>22.383333333333301</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
-        <v>28.95</v>
+        <v>27.5</v>
       </c>
       <c r="B7">
-        <v>28.5833333333333</v>
+        <v>32.1</v>
       </c>
       <c r="D7">
-        <v>28.633333333333301</v>
+        <v>29.05</v>
       </c>
       <c r="E7">
-        <v>30.1</v>
+        <v>28.483333333333299</v>
       </c>
       <c r="G7">
-        <v>32.549999999999997</v>
+        <v>25.266666666666602</v>
       </c>
       <c r="H7">
-        <v>26.983333333333299</v>
+        <v>31.6666666666666</v>
       </c>
       <c r="J7">
-        <v>28.9</v>
+        <v>28.516666666666602</v>
       </c>
       <c r="K7">
-        <v>26.3</v>
+        <v>29.4166666666666</v>
       </c>
       <c r="M7">
-        <v>32.816666666666599</v>
+        <v>27.966666666666601</v>
       </c>
       <c r="N7">
-        <v>26.65</v>
+        <v>32.1</v>
       </c>
       <c r="P7">
-        <v>30.5</v>
+        <v>29.1166666666666</v>
       </c>
       <c r="Q7">
-        <v>29.5</v>
+        <v>31.216666666666601</v>
       </c>
       <c r="S7">
-        <v>33.766666666666602</v>
+        <v>29.9</v>
       </c>
       <c r="T7">
-        <v>23.3666666666666</v>
+        <v>29.3666666666666</v>
       </c>
       <c r="V7">
-        <v>28.816666666666599</v>
+        <v>28.766666666666602</v>
       </c>
       <c r="W7">
-        <v>29.516666666666602</v>
+        <v>28.8333333333333</v>
       </c>
       <c r="Y7">
-        <v>33.633333333333297</v>
+        <v>26.016666666666602</v>
       </c>
       <c r="Z7">
-        <v>27.8333333333333</v>
+        <v>31.9166666666666</v>
       </c>
       <c r="AB7">
-        <v>24.6166666666666</v>
+        <v>28.65</v>
       </c>
       <c r="AC7">
-        <v>31.783333333333299</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
-        <v>36.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="B8">
-        <v>36.3333333333333</v>
+        <v>39.9</v>
       </c>
       <c r="D8">
-        <v>35.866666666666603</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="E8">
-        <v>37.6</v>
+        <v>36.983333333333299</v>
       </c>
       <c r="G8">
-        <v>38.733333333333299</v>
+        <v>31.2</v>
       </c>
       <c r="H8">
-        <v>35.6</v>
+        <v>40.6666666666666</v>
       </c>
       <c r="J8">
-        <v>37.65</v>
+        <v>36.633333333333297</v>
       </c>
       <c r="K8">
-        <v>32.549999999999997</v>
+        <v>35.966666666666598</v>
       </c>
       <c r="M8">
-        <v>40.816666666666599</v>
+        <v>35.716666666666598</v>
       </c>
       <c r="N8">
-        <v>33.65</v>
+        <v>39.35</v>
       </c>
       <c r="P8">
-        <v>36.75</v>
+        <v>35.4</v>
       </c>
       <c r="Q8">
-        <v>38.25</v>
+        <v>39.466666666666598</v>
       </c>
       <c r="S8">
-        <v>41.766666666666602</v>
+        <v>36.633333333333297</v>
       </c>
       <c r="T8">
-        <v>30.1666666666666</v>
+        <v>37.366666666666603</v>
       </c>
       <c r="V8">
-        <v>37.316666666666599</v>
+        <v>36.016666666666602</v>
       </c>
       <c r="W8">
-        <v>36.016666666666602</v>
+        <v>36.5833333333333</v>
       </c>
       <c r="Y8">
-        <v>41.383333333333297</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="Z8">
-        <v>35.0833333333333</v>
+        <v>39.1666666666666</v>
       </c>
       <c r="AB8">
-        <v>31.6166666666666</v>
+        <v>36.033333333333303</v>
       </c>
       <c r="AC8">
-        <v>39.783333333333303</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9">
-        <v>43.95</v>
+        <v>44.75</v>
       </c>
       <c r="B9">
-        <v>43.5833333333333</v>
+        <v>44.65</v>
       </c>
       <c r="D9">
         <v>43.6</v>
       </c>
       <c r="E9">
-        <v>44.6</v>
+        <v>43.733333333333299</v>
       </c>
       <c r="G9">
-        <v>45.483333333333299</v>
+        <v>38.633333333333297</v>
       </c>
       <c r="H9">
-        <v>43.716666666666598</v>
+        <v>48.1666666666666</v>
       </c>
       <c r="J9">
-        <v>44.65</v>
+        <v>44.383333333333297</v>
       </c>
       <c r="K9">
-        <v>40.549999999999997</v>
+        <v>43.216666666666598</v>
       </c>
       <c r="M9">
-        <v>47.816666666666599</v>
+        <v>43.216666666666598</v>
       </c>
       <c r="N9">
-        <v>41.383333333333297</v>
+        <v>46.85</v>
       </c>
       <c r="P9">
-        <v>44.25</v>
+        <v>41.65</v>
       </c>
       <c r="Q9">
-        <v>45.75</v>
+        <v>48.216666666666598</v>
       </c>
       <c r="S9">
-        <v>49.266666666666602</v>
+        <v>45.133333333333297</v>
       </c>
       <c r="T9">
-        <v>37.6666666666666</v>
+        <v>43.6666666666666</v>
       </c>
       <c r="V9">
-        <v>43.566666666666599</v>
+        <v>42.516666666666602</v>
       </c>
       <c r="W9">
-        <v>44.766666666666602</v>
+        <v>45.0833333333333</v>
       </c>
       <c r="Y9">
-        <v>48.633333333333297</v>
+        <v>42.45</v>
       </c>
       <c r="Z9">
-        <v>42.8333333333333</v>
+        <v>45.4166666666666</v>
       </c>
       <c r="AB9">
-        <v>38.116666666666603</v>
+        <v>44.783333333333303</v>
       </c>
       <c r="AC9">
-        <v>48.283333333333303</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10">
-        <v>50.45</v>
+        <v>51.75</v>
       </c>
       <c r="B10">
-        <v>52.0833333333333</v>
+        <v>52.65</v>
       </c>
       <c r="D10">
-        <v>50.85</v>
+        <v>49.35</v>
       </c>
       <c r="E10">
-        <v>52.35</v>
+        <v>52.983333333333299</v>
       </c>
       <c r="G10">
-        <v>52.733333333333299</v>
+        <v>45.383333333333297</v>
       </c>
       <c r="H10">
-        <v>51.466666666666598</v>
+        <v>56.4166666666666</v>
       </c>
       <c r="J10">
-        <v>54.65</v>
+        <v>52.133333333333297</v>
       </c>
       <c r="K10">
-        <v>45.55</v>
+        <v>50.266666666666602</v>
       </c>
       <c r="M10">
-        <v>56.066666666666599</v>
+        <v>50.716666666666598</v>
       </c>
       <c r="N10">
-        <v>48.133333333333297</v>
+        <v>54.35</v>
       </c>
       <c r="P10">
-        <v>51.25</v>
+        <v>49.9</v>
       </c>
       <c r="Q10">
-        <v>53.75</v>
+        <v>54.966666666666598</v>
       </c>
       <c r="S10">
-        <v>57.266666666666602</v>
+        <v>51.133333333333297</v>
       </c>
       <c r="T10">
-        <v>44.6666666666666</v>
+        <v>52.6666666666666</v>
       </c>
       <c r="V10">
-        <v>50.066666666666599</v>
+        <v>51.266666666666602</v>
       </c>
       <c r="W10">
-        <v>53.266666666666602</v>
+        <v>51.3333333333333</v>
       </c>
       <c r="Y10">
-        <v>58.066666666666599</v>
+        <v>49.7</v>
       </c>
       <c r="Z10">
-        <v>48.3333333333333</v>
+        <v>53.1666666666666</v>
       </c>
       <c r="AB10">
-        <v>44.616666666666603</v>
+        <v>52.65</v>
       </c>
       <c r="AC10">
-        <v>56.783333333333303</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11">
-        <v>58.7</v>
+        <v>59.5</v>
       </c>
       <c r="B11">
-        <v>58.8333333333333</v>
+        <v>59.9</v>
       </c>
       <c r="D11">
-        <v>57.85</v>
+        <v>56.1</v>
       </c>
       <c r="E11">
-        <v>60.35</v>
+        <v>61.233333333333299</v>
       </c>
       <c r="G11">
-        <v>58.483333333333299</v>
+        <v>51.383333333333297</v>
       </c>
       <c r="H11">
-        <v>60.716666666666598</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="J11">
-        <v>62.4</v>
+        <v>61.883333333333297</v>
       </c>
       <c r="K11">
-        <v>52.8</v>
+        <v>55.516666666666602</v>
       </c>
       <c r="M11">
-        <v>64.316666666666606</v>
+        <v>59.216666666666598</v>
       </c>
       <c r="N11">
-        <v>54.883333333333297</v>
+        <v>60.85</v>
       </c>
       <c r="P11">
-        <v>58.75</v>
+        <v>58.4</v>
       </c>
       <c r="Q11">
-        <v>61.25</v>
+        <v>61.466666666666598</v>
       </c>
       <c r="S11">
-        <v>66.016666666666595</v>
+        <v>58.883333333333297</v>
       </c>
       <c r="T11">
-        <v>50.9166666666666</v>
+        <v>59.9166666666666</v>
       </c>
       <c r="V11">
-        <v>57.816666666666599</v>
+        <v>58.516666666666602</v>
       </c>
       <c r="W11">
-        <v>60.516666666666602</v>
+        <v>59.0833333333333</v>
       </c>
       <c r="Y11">
-        <v>65.066666666666606</v>
+        <v>58.2</v>
       </c>
       <c r="Z11">
-        <v>56.3333333333333</v>
+        <v>59.6666666666666</v>
       </c>
       <c r="AB11">
-        <v>53.116666666666603</v>
+        <v>60.9</v>
       </c>
       <c r="AC11">
-        <v>63.283333333333303</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12">
-        <v>67.7</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>64.8333333333333</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D12">
-        <v>65.849999999999994</v>
+        <v>63.35</v>
       </c>
       <c r="E12">
-        <v>67.349999999999994</v>
+        <v>68.983333333333306</v>
       </c>
       <c r="G12">
-        <v>66.233333333333306</v>
+        <v>59.633333333333297</v>
       </c>
       <c r="H12">
-        <v>67.966666666666598</v>
+        <v>71.966666666666598</v>
       </c>
       <c r="J12">
-        <v>69.650000000000006</v>
+        <v>69.633333333333297</v>
       </c>
       <c r="K12">
-        <v>60.55</v>
+        <v>62.766666666666602</v>
       </c>
       <c r="M12">
-        <v>72.233333333333306</v>
+        <v>67.466666666666598</v>
       </c>
       <c r="N12">
-        <v>61.633333333333297</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="P12">
-        <v>67.75</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="Q12">
-        <v>67.25</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="S12">
-        <v>75.516666666666595</v>
+        <v>66.383333333333297</v>
       </c>
       <c r="T12">
-        <v>56.4166666666666</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="V12">
-        <v>64.316666666666606</v>
+        <v>66.266666666666595</v>
       </c>
       <c r="W12">
-        <v>69.016666666666595</v>
+        <v>66.3333333333333</v>
       </c>
       <c r="Y12">
-        <v>71.033333333333303</v>
+        <v>66.2</v>
       </c>
       <c r="Z12">
-        <v>64.8333333333333</v>
+        <v>66.6666666666666</v>
       </c>
       <c r="AB12">
-        <v>59.866666666666603</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="AC12">
-        <v>71.533333333333303</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13">
-        <v>76.2</v>
+        <v>75</v>
       </c>
       <c r="B13">
-        <v>71.2</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D13">
-        <v>73.033333333333303</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E13">
-        <v>75.099999999999994</v>
+        <v>76.8333333333333</v>
       </c>
       <c r="G13">
-        <v>74.483333333333306</v>
+        <v>67.633333333333297</v>
       </c>
       <c r="H13">
-        <v>74.716666666666598</v>
+        <v>78.633333333333297</v>
       </c>
       <c r="J13">
-        <v>76.900000000000006</v>
+        <v>77.05</v>
       </c>
       <c r="K13">
-        <v>68.3</v>
+        <v>70.016666666666595</v>
       </c>
       <c r="M13">
-        <v>78.099999999999994</v>
+        <v>74.383333333333297</v>
       </c>
       <c r="N13">
-        <v>70.633333333333297</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="P13">
-        <v>74.75</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="Q13">
-        <v>75.25</v>
+        <v>76.516666666666595</v>
       </c>
       <c r="S13">
-        <v>83.316666666666606</v>
+        <v>73.883333333333297</v>
       </c>
       <c r="T13">
-        <v>63.4166666666666</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="V13">
-        <v>73.316666666666606</v>
+        <v>75.766666666666595</v>
       </c>
       <c r="W13">
-        <v>75.016666666666595</v>
+        <v>71.8333333333333</v>
       </c>
       <c r="Y13">
-        <v>77.533333333333303</v>
+        <v>73.2</v>
       </c>
       <c r="Z13">
-        <v>73.3333333333333</v>
+        <v>74.6666666666666</v>
       </c>
       <c r="AB13">
-        <v>68.116666666666603</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="AC13">
-        <v>78.283333333333303</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14">
-        <v>81.95</v>
+        <v>81</v>
       </c>
       <c r="B14">
+        <v>83.266666666666595</v>
+      </c>
+      <c r="D14">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="E14">
+        <v>83.983333333333306</v>
+      </c>
+      <c r="G14">
+        <v>73.883333333333297</v>
+      </c>
+      <c r="H14">
+        <v>86.983333333333306</v>
+      </c>
+      <c r="J14">
+        <v>83.65</v>
+      </c>
+      <c r="K14">
+        <v>78.016666666666595</v>
+      </c>
+      <c r="M14">
+        <v>82.133333333333297</v>
+      </c>
+      <c r="N14">
+        <v>82.6</v>
+      </c>
+      <c r="P14">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="Q14">
+        <v>82.95</v>
+      </c>
+      <c r="S14">
+        <v>80.133333333333297</v>
+      </c>
+      <c r="T14">
+        <v>83.4</v>
+      </c>
+      <c r="V14">
+        <v>83.266666666666595</v>
+      </c>
+      <c r="W14">
+        <v>79.266666666666595</v>
+      </c>
+      <c r="Y14">
         <v>80.45</v>
       </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>82.6</v>
-      </c>
-      <c r="G14">
-        <v>81.483333333333306</v>
-      </c>
-      <c r="H14">
-        <v>82.716666666666598</v>
-      </c>
-      <c r="J14">
-        <v>85.15</v>
-      </c>
-      <c r="K14">
-        <v>75.05</v>
-      </c>
-      <c r="M14">
-        <v>85.216666666666598</v>
-      </c>
-      <c r="N14">
-        <v>78.383333333333297</v>
-      </c>
-      <c r="P14">
-        <v>81.75</v>
-      </c>
-      <c r="Q14">
-        <v>83.25</v>
-      </c>
-      <c r="S14">
-        <v>91.316666666666606</v>
-      </c>
-      <c r="T14">
-        <v>70.4166666666666</v>
-      </c>
-      <c r="V14">
-        <v>82.316666666666606</v>
-      </c>
-      <c r="W14">
-        <v>81.016666666666595</v>
-      </c>
-      <c r="Y14">
-        <v>84.316666666666606</v>
-      </c>
       <c r="Z14">
-        <v>81.0833333333333</v>
+        <v>82.4166666666666</v>
       </c>
       <c r="AB14">
-        <v>76.366666666666603</v>
+        <v>85.9</v>
       </c>
       <c r="AC14">
-        <v>84.766666666666595</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15">
-        <v>87.883333333333297</v>
+        <v>87.75</v>
       </c>
       <c r="B15">
-        <v>88.9166666666666</v>
+        <v>90.983333333333306</v>
       </c>
       <c r="D15">
-        <v>86.9166666666666</v>
+        <v>85.85</v>
       </c>
       <c r="E15">
-        <v>89.75</v>
+        <v>90.0833333333333</v>
       </c>
       <c r="G15">
-        <v>87.483333333333306</v>
+        <v>79.883333333333297</v>
       </c>
       <c r="H15">
-        <v>91.5833333333333</v>
+        <v>95.516666666666595</v>
       </c>
       <c r="J15">
-        <v>92.816666666666606</v>
+        <v>90.35</v>
       </c>
       <c r="K15">
-        <v>82.05</v>
+        <v>85.516666666666595</v>
       </c>
       <c r="M15">
-        <v>92.55</v>
+        <v>87.466666666666598</v>
       </c>
       <c r="N15">
-        <v>85.383333333333297</v>
+        <v>91.466666666666598</v>
       </c>
       <c r="P15">
-        <v>88.683333333333294</v>
+        <v>90.15</v>
       </c>
       <c r="Q15">
-        <v>91.25</v>
+        <v>89.25</v>
       </c>
       <c r="S15">
-        <v>98.866666666666603</v>
+        <v>87.066666666666606</v>
       </c>
       <c r="T15">
-        <v>77.6666666666666</v>
+        <v>91.4</v>
       </c>
       <c r="V15">
-        <v>90.366666666666603</v>
+        <v>89.9166666666666</v>
       </c>
       <c r="W15">
-        <v>87.766666666666595</v>
+        <v>87.016666666666595</v>
       </c>
       <c r="Y15">
-        <v>91.783333333333303</v>
+        <v>88.25</v>
       </c>
       <c r="Z15">
-        <v>87.683333333333294</v>
+        <v>89.4166666666666</v>
       </c>
       <c r="AB15">
-        <v>84.116666666666603</v>
+        <v>94.65</v>
       </c>
       <c r="AC15">
-        <v>92.016666666666595</v>
+        <v>83.4166666666666</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16">
-        <v>93.016666666666595</v>
+        <v>96.75</v>
       </c>
       <c r="B16">
-        <v>97.45</v>
+        <v>96.9166666666666</v>
       </c>
       <c r="D16">
-        <v>95.6666666666666</v>
+        <v>94.35</v>
       </c>
       <c r="E16">
-        <v>96</v>
+        <v>96.383333333333297</v>
       </c>
       <c r="G16">
-        <v>92.983333333333306</v>
+        <v>87.3</v>
       </c>
       <c r="H16">
-        <v>100.55</v>
+        <v>102.56666666666599</v>
       </c>
       <c r="J16">
-        <v>100.433333333333</v>
+        <v>96.633333333333297</v>
       </c>
       <c r="K16">
-        <v>89.3</v>
+        <v>93.766666666666595</v>
       </c>
       <c r="M16">
-        <v>98.683333333333294</v>
+        <v>94.383333333333297</v>
       </c>
       <c r="N16">
-        <v>93.383333333333297</v>
+        <v>99.216666666666598</v>
       </c>
       <c r="P16">
-        <v>97.6666666666666</v>
+        <v>98.4</v>
       </c>
       <c r="Q16">
-        <v>96.733333333333306</v>
+        <v>95.6</v>
       </c>
       <c r="S16">
-        <v>105.266666666666</v>
+        <v>93.966666666666598</v>
       </c>
       <c r="T16">
-        <v>85.6</v>
+        <v>98.9</v>
       </c>
       <c r="V16">
-        <v>97.8333333333333</v>
+        <v>98.8333333333333</v>
       </c>
       <c r="W16">
-        <v>94.766666666666595</v>
+        <v>92.5</v>
       </c>
       <c r="Y16">
-        <v>99.133333333333297</v>
+        <v>94.75</v>
       </c>
       <c r="Z16">
-        <v>94.8</v>
+        <v>97.516666666666595</v>
       </c>
       <c r="AB16">
-        <v>90.616666666666603</v>
+        <v>101.9</v>
       </c>
       <c r="AC16">
-        <v>100.383333333333</v>
+        <v>90.766666666666595</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17">
-        <v>100.016666666666</v>
+        <v>103.5</v>
       </c>
       <c r="B17">
-        <v>104.25</v>
+        <v>103.5</v>
       </c>
       <c r="D17">
-        <v>102.016666666666</v>
+        <v>101.1</v>
       </c>
       <c r="E17">
-        <v>103.31666666666599</v>
+        <v>103.9</v>
       </c>
       <c r="G17">
-        <v>100.266666666666</v>
+        <v>94.283333333333303</v>
       </c>
       <c r="H17">
-        <v>106.933333333333</v>
+        <v>109.716666666666</v>
       </c>
       <c r="J17">
-        <v>107.466666666666</v>
+        <v>102.466666666666</v>
       </c>
       <c r="K17">
-        <v>96.8</v>
+        <v>101.666666666666</v>
       </c>
       <c r="M17">
-        <v>105.61666666666601</v>
+        <v>100.666666666666</v>
       </c>
       <c r="N17">
-        <v>100.516666666666</v>
+        <v>107.133333333333</v>
       </c>
       <c r="P17">
-        <v>104.36666666666601</v>
+        <v>107.4</v>
       </c>
       <c r="Q17">
-        <v>103.833333333333</v>
+        <v>101.4</v>
       </c>
       <c r="S17">
-        <v>112.916666666666</v>
+        <v>102.23333333333299</v>
       </c>
       <c r="T17">
-        <v>91.883333333333297</v>
+        <v>104.7</v>
       </c>
       <c r="V17">
-        <v>106.583333333333</v>
+        <v>105.35</v>
       </c>
       <c r="W17">
-        <v>101.016666666666</v>
+        <v>100.05</v>
       </c>
       <c r="Y17">
-        <v>105.9</v>
+        <v>102.433333333333</v>
       </c>
       <c r="Z17">
-        <v>101.633333333333</v>
+        <v>103.633333333333</v>
       </c>
       <c r="AB17">
-        <v>98.45</v>
+        <v>108.35</v>
       </c>
       <c r="AC17">
-        <v>106.083333333333</v>
+        <v>97.5833333333333</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18">
-        <v>107.61666666666601</v>
+        <v>111.61666666666601</v>
       </c>
       <c r="B18">
-        <v>110.98333333333299</v>
+        <v>109.45</v>
       </c>
       <c r="D18">
-        <v>109.6</v>
+        <v>108.31666666666599</v>
       </c>
       <c r="E18">
-        <v>109.666666666666</v>
+        <v>111.15</v>
       </c>
       <c r="G18">
-        <v>108.2</v>
+        <v>101.333333333333</v>
       </c>
       <c r="H18">
-        <v>112.6</v>
+        <v>116.6</v>
       </c>
       <c r="J18">
-        <v>115.06666666666599</v>
+        <v>108.133333333333</v>
       </c>
       <c r="K18">
-        <v>103.533333333333</v>
+        <v>110.2</v>
       </c>
       <c r="M18">
-        <v>112.5</v>
+        <v>107.7</v>
       </c>
       <c r="N18">
-        <v>107.1</v>
+        <v>113.56666666666599</v>
       </c>
       <c r="P18">
-        <v>111.73333333333299</v>
+        <v>114.583333333333</v>
       </c>
       <c r="Q18">
-        <v>108.86666666666601</v>
+        <v>108.15</v>
       </c>
       <c r="S18">
-        <v>120.5</v>
+        <v>109.8</v>
       </c>
       <c r="T18">
-        <v>98.633333333333297</v>
+        <v>110.73333333333299</v>
       </c>
       <c r="V18">
-        <v>113.516666666666</v>
+        <v>112.35</v>
       </c>
       <c r="W18">
-        <v>107.48333333333299</v>
+        <v>107.516666666666</v>
       </c>
       <c r="Y18">
-        <v>112.433333333333</v>
+        <v>108.033333333333</v>
       </c>
       <c r="Z18">
-        <v>108.9</v>
+        <v>111.633333333333</v>
       </c>
       <c r="AB18">
-        <v>103.95</v>
+        <v>115.133333333333</v>
       </c>
       <c r="AC18">
-        <v>114.25</v>
+        <v>105.333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19">
+        <v>119.966666666666</v>
+      </c>
+      <c r="B19">
+        <v>115.166666666666</v>
+      </c>
+      <c r="D19">
+        <v>116.98333333333299</v>
+      </c>
+      <c r="E19">
+        <v>116.083333333333</v>
+      </c>
+      <c r="G19">
+        <v>108.533333333333</v>
+      </c>
+      <c r="H19">
+        <v>122.6</v>
+      </c>
+      <c r="J19">
+        <v>113.31666666666599</v>
+      </c>
+      <c r="K19">
+        <v>118.15</v>
+      </c>
+      <c r="M19">
+        <v>113.8</v>
+      </c>
+      <c r="N19">
+        <v>121.466666666666</v>
+      </c>
+      <c r="P19">
+        <v>122.3</v>
+      </c>
+      <c r="Q19">
+        <v>114.3</v>
+      </c>
+      <c r="S19">
+        <v>117.4</v>
+      </c>
+      <c r="T19">
+        <v>117.533333333333</v>
+      </c>
+      <c r="V19">
+        <v>119.083333333333</v>
+      </c>
+      <c r="W19">
         <v>114.183333333333</v>
       </c>
-      <c r="B19">
-        <v>117.883333333333</v>
-      </c>
-      <c r="D19">
-        <v>116.9</v>
-      </c>
-      <c r="E19">
-        <v>116.56666666666599</v>
-      </c>
-      <c r="G19">
-        <v>115.81666666666599</v>
-      </c>
-      <c r="H19">
-        <v>119.383333333333</v>
-      </c>
-      <c r="J19">
-        <v>121.73333333333299</v>
-      </c>
-      <c r="K19">
-        <v>110.933333333333</v>
-      </c>
-      <c r="M19">
-        <v>120.216666666666</v>
-      </c>
-      <c r="N19">
-        <v>113.31666666666599</v>
-      </c>
-      <c r="P19">
-        <v>119.11666666666601</v>
-      </c>
-      <c r="Q19">
-        <v>114.95</v>
-      </c>
-      <c r="S19">
-        <v>127.883333333333</v>
-      </c>
-      <c r="T19">
-        <v>105.05</v>
-      </c>
-      <c r="V19">
-        <v>119.966666666666</v>
-      </c>
-      <c r="W19">
-        <v>114.033333333333</v>
-      </c>
       <c r="Y19">
-        <v>120.083333333333</v>
+        <v>112.65</v>
       </c>
       <c r="Z19">
-        <v>114.85</v>
+        <v>120.283333333333</v>
       </c>
       <c r="AB19">
-        <v>111.45</v>
+        <v>121.716666666666</v>
       </c>
       <c r="AC19">
-        <v>121.416666666666</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20">
-        <v>120.61666666666601</v>
+        <v>126.933333333333</v>
       </c>
       <c r="B20">
-        <v>126.31666666666599</v>
+        <v>122.06666666666599</v>
       </c>
       <c r="D20">
-        <v>123.95</v>
+        <v>123.7</v>
       </c>
       <c r="E20">
-        <v>123.98333333333299</v>
+        <v>122.7</v>
       </c>
       <c r="G20">
-        <v>122.36666666666601</v>
+        <v>115.31666666666599</v>
       </c>
       <c r="H20">
-        <v>126.7</v>
+        <v>130.21666666666599</v>
       </c>
       <c r="J20">
-        <v>127.666666666666</v>
+        <v>119.7</v>
       </c>
       <c r="K20">
-        <v>119.533333333333</v>
+        <v>125.633333333333</v>
       </c>
       <c r="M20">
-        <v>127.15</v>
+        <v>119.216666666666</v>
       </c>
       <c r="N20">
-        <v>119.583333333333</v>
+        <v>129.916666666666</v>
       </c>
       <c r="P20">
-        <v>125.583333333333</v>
+        <v>130.21666666666599</v>
       </c>
       <c r="Q20">
-        <v>122.283333333333</v>
+        <v>120.05</v>
       </c>
       <c r="S20">
-        <v>134</v>
+        <v>124.06666666666599</v>
       </c>
       <c r="T20">
-        <v>112.2</v>
+        <v>125.266666666666</v>
       </c>
       <c r="V20">
-        <v>128.266666666666</v>
+        <v>128.06666666666601</v>
       </c>
       <c r="W20">
-        <v>120.266666666666</v>
+        <v>119.73333333333299</v>
       </c>
       <c r="Y20">
-        <v>128.4</v>
+        <v>121.466666666666</v>
       </c>
       <c r="Z20">
-        <v>120</v>
+        <v>125.333333333333</v>
       </c>
       <c r="AB20">
-        <v>118.55</v>
+        <v>130.06666666666601</v>
       </c>
       <c r="AC20">
-        <v>128.05000000000001</v>
+        <v>118.466666666666</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21">
-        <v>128.9</v>
+        <v>133.416666666666</v>
       </c>
       <c r="B21">
-        <v>132.03333333333299</v>
+        <v>129.98333333333301</v>
       </c>
       <c r="D21">
-        <v>131.916666666666</v>
+        <v>133.03333333333299</v>
       </c>
       <c r="E21">
-        <v>130.016666666666</v>
+        <v>127.433333333333</v>
       </c>
       <c r="G21">
-        <v>129.583333333333</v>
+        <v>123.666666666666</v>
       </c>
       <c r="H21">
-        <v>133.416666666666</v>
+        <v>135.86666666666599</v>
       </c>
       <c r="J21">
-        <v>134.25</v>
+        <v>126.31666666666599</v>
       </c>
       <c r="K21">
-        <v>126.016666666666</v>
+        <v>133.35</v>
       </c>
       <c r="M21">
-        <v>132.833333333333</v>
+        <v>125.966666666666</v>
       </c>
       <c r="N21">
-        <v>127.1</v>
+        <v>137.9</v>
       </c>
       <c r="P21">
-        <v>132.53333333333299</v>
+        <v>137.48333333333301</v>
       </c>
       <c r="Q21">
-        <v>128.80000000000001</v>
+        <v>126.783333333333</v>
       </c>
       <c r="S21">
-        <v>141.4</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="T21">
-        <v>119.2</v>
+        <v>131.46666666666599</v>
       </c>
       <c r="V21">
-        <v>136.183333333333</v>
+        <v>135.75</v>
       </c>
       <c r="W21">
-        <v>126.216666666666</v>
+        <v>125.783333333333</v>
       </c>
       <c r="Y21">
-        <v>135.21666666666599</v>
+        <v>129</v>
       </c>
       <c r="Z21">
-        <v>126.916666666666</v>
+        <v>131.13333333333301</v>
       </c>
       <c r="AB21">
-        <v>123.61666666666601</v>
+        <v>136.25</v>
       </c>
       <c r="AC21">
-        <v>136.44999999999999</v>
+        <v>127.016666666666</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22">
-        <v>134.81666666666601</v>
+        <v>138.94999999999999</v>
       </c>
       <c r="B22">
-        <v>140.11666666666599</v>
+        <v>138.583333333333</v>
       </c>
       <c r="D22">
-        <v>139.38333333333301</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="E22">
-        <v>136.88333333333301</v>
+        <v>134.766666666666</v>
       </c>
       <c r="G22">
-        <v>137.1</v>
+        <v>128.98333333333301</v>
       </c>
       <c r="H22">
-        <v>139.96666666666599</v>
+        <v>143.88333333333301</v>
       </c>
       <c r="J22">
-        <v>141.933333333333</v>
+        <v>132.13333333333301</v>
       </c>
       <c r="K22">
-        <v>131.6</v>
+        <v>140.4</v>
       </c>
       <c r="M22">
-        <v>139.15</v>
+        <v>133.55000000000001</v>
       </c>
       <c r="N22">
-        <v>133.85</v>
+        <v>144.25</v>
       </c>
       <c r="P22">
-        <v>139.583333333333</v>
+        <v>145.81666666666601</v>
       </c>
       <c r="Q22">
-        <v>136.35</v>
+        <v>131.98333333333301</v>
       </c>
       <c r="S22">
-        <v>147.516666666666</v>
+        <v>140.1</v>
       </c>
       <c r="T22">
-        <v>126.416666666666</v>
+        <v>136.63333333333301</v>
       </c>
       <c r="V22">
-        <v>142.23333333333301</v>
+        <v>141.65</v>
       </c>
       <c r="W22">
-        <v>133.5</v>
+        <v>133.55000000000001</v>
       </c>
       <c r="Y22">
-        <v>142.666666666666</v>
+        <v>134.96666666666599</v>
       </c>
       <c r="Z22">
-        <v>133.53333333333299</v>
+        <v>138.9</v>
       </c>
       <c r="AB22">
-        <v>128.1</v>
+        <v>143.666666666666</v>
       </c>
       <c r="AC22">
-        <v>145.30000000000001</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23">
-        <v>140.78333333333299</v>
+        <v>145.86666666666599</v>
       </c>
       <c r="B23">
-        <v>147.416666666666</v>
+        <v>144.53333333333299</v>
       </c>
       <c r="D23">
-        <v>146.583333333333</v>
+        <v>146.78333333333299</v>
       </c>
       <c r="E23">
-        <v>143.683333333333</v>
+        <v>141.61666666666599</v>
       </c>
       <c r="G23">
-        <v>144.083333333333</v>
+        <v>136.78333333333299</v>
       </c>
       <c r="H23">
-        <v>146.916666666666</v>
+        <v>150.15</v>
       </c>
       <c r="J23">
-        <v>149.183333333333</v>
+        <v>139.53333333333299</v>
       </c>
       <c r="K23">
-        <v>137.88333333333301</v>
+        <v>147.333333333333</v>
       </c>
       <c r="M23">
-        <v>145.63333333333301</v>
+        <v>139.183333333333</v>
       </c>
       <c r="N23">
-        <v>141.433333333333</v>
+        <v>151.94999999999999</v>
       </c>
       <c r="P23">
-        <v>145.19999999999999</v>
+        <v>153.71666666666599</v>
       </c>
       <c r="Q23">
-        <v>144.06666666666601</v>
+        <v>137.94999999999999</v>
       </c>
       <c r="S23">
-        <v>153.06666666666601</v>
+        <v>147.36666666666599</v>
       </c>
       <c r="T23">
-        <v>134.19999999999999</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="V23">
-        <v>150.433333333333</v>
+        <v>149.38333333333301</v>
       </c>
       <c r="W23">
-        <v>138.766666666666</v>
+        <v>139.61666666666599</v>
       </c>
       <c r="Y23">
-        <v>148.13333333333301</v>
+        <v>142.06666666666601</v>
       </c>
       <c r="Z23">
-        <v>141.333333333333</v>
+        <v>146.06666666666601</v>
       </c>
       <c r="AB23">
-        <v>133.69999999999999</v>
+        <v>150.96666666666599</v>
       </c>
       <c r="AC23">
-        <v>153.03333333333299</v>
+        <v>139.833333333333</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24">
-        <v>148.11666666666599</v>
+        <v>152.65</v>
       </c>
       <c r="B24">
-        <v>153.083333333333</v>
+        <v>151.81666666666601</v>
       </c>
       <c r="D24">
-        <v>153.73333333333301</v>
+        <v>154.35</v>
       </c>
       <c r="E24">
-        <v>150.46666666666599</v>
+        <v>147.583333333333</v>
       </c>
       <c r="G24">
-        <v>150.65</v>
+        <v>142.56666666666601</v>
       </c>
       <c r="H24">
-        <v>153.88333333333301</v>
+        <v>158.36666666666599</v>
       </c>
       <c r="J24">
-        <v>156.13333333333301</v>
+        <v>144.766666666666</v>
       </c>
       <c r="K24">
-        <v>144.333333333333</v>
+        <v>153.766666666666</v>
       </c>
       <c r="M24">
-        <v>151.75</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="N24">
-        <v>148.71666666666599</v>
+        <v>157.933333333333</v>
       </c>
       <c r="P24">
-        <v>152.23333333333301</v>
+        <v>160.183333333333</v>
       </c>
       <c r="Q24">
-        <v>151.30000000000001</v>
+        <v>145.48333333333301</v>
       </c>
       <c r="S24">
-        <v>159.71666666666599</v>
+        <v>153.23333333333301</v>
       </c>
       <c r="T24">
-        <v>141.083333333333</v>
+        <v>151.433333333333</v>
       </c>
       <c r="V24">
-        <v>157.44999999999999</v>
+        <v>155.73333333333301</v>
       </c>
       <c r="W24">
-        <v>145.016666666666</v>
+        <v>145.266666666666</v>
       </c>
       <c r="Y24">
-        <v>155.96666666666599</v>
+        <v>148.46666666666599</v>
       </c>
       <c r="Z24">
-        <v>146.5</v>
+        <v>152.06666666666601</v>
       </c>
       <c r="AB24">
-        <v>139.56666666666601</v>
+        <v>158.44999999999999</v>
       </c>
       <c r="AC24">
-        <v>160.433333333333</v>
+        <v>147.083333333333</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25">
-        <v>153.98333333333301</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="B25">
-        <v>159.416666666666</v>
+        <v>157.85</v>
       </c>
       <c r="D25">
-        <v>162.016666666666</v>
+        <v>160.65</v>
       </c>
       <c r="E25">
-        <v>156.11666666666599</v>
+        <v>154.016666666666</v>
       </c>
       <c r="G25">
-        <v>157.38333333333301</v>
+        <v>151.81666666666601</v>
       </c>
       <c r="H25">
-        <v>161.083333333333</v>
+        <v>162.516666666666</v>
       </c>
       <c r="J25">
-        <v>162.03333333333299</v>
+        <v>150.1</v>
       </c>
       <c r="K25">
-        <v>152.166666666666</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="M25">
-        <v>158.30000000000001</v>
+        <v>155.53333333333299</v>
       </c>
       <c r="N25">
-        <v>155.96666666666599</v>
+        <v>163.933333333333</v>
       </c>
       <c r="P25">
-        <v>157.36666666666599</v>
+        <v>167.13333333333301</v>
       </c>
       <c r="Q25">
-        <v>159.69999999999999</v>
+        <v>152</v>
       </c>
       <c r="S25">
-        <v>165.766666666666</v>
+        <v>158.98333333333301</v>
       </c>
       <c r="T25">
-        <v>147.96666666666599</v>
+        <v>159.21666666666599</v>
       </c>
       <c r="V25">
-        <v>163.9</v>
+        <v>162.28333333333299</v>
       </c>
       <c r="W25">
-        <v>152.30000000000001</v>
+        <v>152.916666666666</v>
       </c>
       <c r="Y25">
-        <v>163.183333333333</v>
+        <v>153.78333333333299</v>
       </c>
       <c r="Z25">
-        <v>153.28333333333299</v>
+        <v>160.21666666666599</v>
       </c>
       <c r="AB25">
-        <v>145.75</v>
+        <v>165.71666666666599</v>
       </c>
       <c r="AC25">
-        <v>168.31666666666601</v>
+        <v>152.75</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26">
-        <v>161.4</v>
+        <v>165.46666666666599</v>
       </c>
       <c r="B26">
-        <v>165.73333333333301</v>
+        <v>165.266666666666</v>
       </c>
       <c r="D26">
-        <v>168.55</v>
+        <v>167.73333333333301</v>
       </c>
       <c r="E26">
-        <v>162.85</v>
+        <v>159.73333333333301</v>
       </c>
       <c r="G26">
-        <v>162.666666666666</v>
+        <v>158.833333333333</v>
       </c>
       <c r="H26">
-        <v>168.2</v>
+        <v>169.1</v>
       </c>
       <c r="J26">
-        <v>169.016666666666</v>
+        <v>155.916666666666</v>
       </c>
       <c r="K26">
-        <v>157.25</v>
+        <v>168.75</v>
       </c>
       <c r="M26">
-        <v>165.48333333333301</v>
+        <v>162.11666666666599</v>
       </c>
       <c r="N26">
-        <v>162.916666666666</v>
+        <v>170.81666666666601</v>
       </c>
       <c r="P26">
-        <v>165.6</v>
+        <v>173.78333333333299</v>
       </c>
       <c r="Q26">
-        <v>164.266666666666</v>
+        <v>158.61666666666599</v>
       </c>
       <c r="S26">
-        <v>172.95</v>
+        <v>165.95</v>
       </c>
       <c r="T26">
-        <v>153.516666666666</v>
+        <v>166.31666666666601</v>
       </c>
       <c r="V26">
-        <v>171.73333333333301</v>
+        <v>168.933333333333</v>
       </c>
       <c r="W26">
-        <v>158.266666666666</v>
+        <v>160.666666666666</v>
       </c>
       <c r="Y26">
-        <v>170.13333333333301</v>
+        <v>158.48333333333301</v>
       </c>
       <c r="Z26">
-        <v>159</v>
+        <v>168.11666666666599</v>
       </c>
       <c r="AB26">
-        <v>152.53333333333299</v>
+        <v>173.35</v>
       </c>
       <c r="AC26">
-        <v>175.8</v>
+        <v>158.98333333333301</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27">
-        <v>167.98333333333301</v>
+        <v>171.25</v>
       </c>
       <c r="B27">
-        <v>172.28333333333299</v>
+        <v>172.416666666666</v>
       </c>
       <c r="D27">
-        <v>177.916666666666</v>
+        <v>175.5</v>
       </c>
       <c r="E27">
-        <v>168.15</v>
+        <v>165.03333333333299</v>
       </c>
       <c r="G27">
-        <v>169.61666666666599</v>
+        <v>166.416666666666</v>
       </c>
       <c r="H27">
-        <v>175.11666666666599</v>
+        <v>174.583333333333</v>
       </c>
       <c r="J27">
-        <v>175.35</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="K27">
-        <v>164.85</v>
+        <v>176.36666666666599</v>
       </c>
       <c r="M27">
-        <v>172.916666666666</v>
+        <v>167.63333333333301</v>
       </c>
       <c r="N27">
-        <v>168.35</v>
+        <v>178.23333333333301</v>
       </c>
       <c r="P27">
-        <v>173.38333333333301</v>
+        <v>182.4</v>
       </c>
       <c r="Q27">
-        <v>170.48333333333301</v>
+        <v>163.4</v>
       </c>
       <c r="S27">
-        <v>180.28333333333299</v>
+        <v>173.48333333333301</v>
       </c>
       <c r="T27">
-        <v>159.38333333333301</v>
+        <v>171.516666666666</v>
       </c>
       <c r="V27">
-        <v>178.25</v>
+        <v>176.15</v>
       </c>
       <c r="W27">
-        <v>165.15</v>
+        <v>167.38333333333301</v>
       </c>
       <c r="Y27">
-        <v>178.183333333333</v>
+        <v>166.05</v>
       </c>
       <c r="Z27">
-        <v>164.35</v>
+        <v>173.55</v>
       </c>
       <c r="AB27">
-        <v>158.266666666666</v>
+        <v>180.3</v>
       </c>
       <c r="AC27">
-        <v>183.8</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28">
-        <v>174.3</v>
+        <v>174.78333333333299</v>
       </c>
       <c r="B28">
-        <v>178.36666666666599</v>
+        <v>181.21666666666599</v>
       </c>
       <c r="D28">
-        <v>186.28333333333299</v>
+        <v>182.98333333333301</v>
       </c>
       <c r="E28">
-        <v>172.916666666666</v>
+        <v>171.88333333333301</v>
       </c>
       <c r="G28">
-        <v>176.86666666666599</v>
+        <v>172.86666666666599</v>
       </c>
       <c r="H28">
-        <v>181.6</v>
+        <v>181.46666666666599</v>
       </c>
       <c r="J28">
-        <v>182.333333333333</v>
+        <v>168.36666666666599</v>
       </c>
       <c r="K28">
-        <v>171.06666666666601</v>
+        <v>183.96666666666599</v>
       </c>
       <c r="M28">
-        <v>179.65</v>
+        <v>173.55</v>
       </c>
       <c r="N28">
-        <v>174.61666666666599</v>
+        <v>184.98333333333301</v>
       </c>
       <c r="P28">
-        <v>178.56666666666601</v>
+        <v>188.78333333333299</v>
       </c>
       <c r="Q28">
-        <v>178.63333333333301</v>
+        <v>170.15</v>
       </c>
       <c r="S28">
-        <v>186.266666666666</v>
+        <v>179.28333333333299</v>
       </c>
       <c r="T28">
-        <v>166.933333333333</v>
+        <v>179.85</v>
       </c>
       <c r="V28">
-        <v>184.71666666666599</v>
+        <v>182.35</v>
       </c>
       <c r="W28">
-        <v>172.083333333333</v>
+        <v>174.78333333333299</v>
       </c>
       <c r="Y28">
-        <v>184.15</v>
+        <v>172.05</v>
       </c>
       <c r="Z28">
-        <v>170.31666666666601</v>
+        <v>181.21666666666599</v>
       </c>
       <c r="AB28">
-        <v>164.083333333333</v>
+        <v>188.55</v>
       </c>
       <c r="AC28">
-        <v>190.65</v>
+        <v>170.516666666666</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29">
-        <v>181.13333333333301</v>
+        <v>180.583333333333</v>
       </c>
       <c r="B29">
-        <v>184.73333333333301</v>
+        <v>187.55</v>
       </c>
       <c r="D29">
-        <v>193.71666666666599</v>
+        <v>189.766666666666</v>
       </c>
       <c r="E29">
-        <v>177.88333333333301</v>
+        <v>178.7</v>
       </c>
       <c r="G29">
-        <v>183.683333333333</v>
+        <v>180.46666666666599</v>
       </c>
       <c r="H29">
-        <v>187.85</v>
+        <v>187.8</v>
       </c>
       <c r="J29">
-        <v>190.5</v>
+        <v>174.9</v>
       </c>
       <c r="K29">
-        <v>177.166666666666</v>
+        <v>190.9</v>
       </c>
       <c r="M29">
-        <v>186.28333333333299</v>
+        <v>179.36666666666599</v>
       </c>
       <c r="N29">
-        <v>181.71666666666599</v>
+        <v>192.166666666666</v>
       </c>
       <c r="P29">
-        <v>186.266666666666</v>
+        <v>195.766666666666</v>
       </c>
       <c r="Q29">
-        <v>184.2</v>
+        <v>177.1</v>
       </c>
       <c r="S29">
-        <v>192.95</v>
+        <v>186.7</v>
       </c>
       <c r="T29">
-        <v>173.25</v>
+        <v>186.1</v>
       </c>
       <c r="V29">
-        <v>192.85</v>
+        <v>188.3</v>
       </c>
       <c r="W29">
-        <v>177.15</v>
+        <v>181.56666666666601</v>
       </c>
       <c r="Y29">
-        <v>190.11666666666599</v>
+        <v>177.98333333333301</v>
       </c>
       <c r="Z29">
-        <v>177.416666666666</v>
+        <v>188.083333333333</v>
       </c>
       <c r="AB29">
-        <v>169.53333333333299</v>
+        <v>193.88333333333301</v>
       </c>
       <c r="AC29">
-        <v>197.06666666666601</v>
+        <v>178.78333333333299</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30">
-        <v>185.9</v>
+        <v>186.71666666666599</v>
       </c>
       <c r="B30">
-        <v>191.36666666666599</v>
+        <v>194.35</v>
       </c>
       <c r="D30">
-        <v>200.85</v>
+        <v>198.36666666666599</v>
       </c>
       <c r="E30">
-        <v>183.21666666666599</v>
+        <v>183.9</v>
       </c>
       <c r="G30">
-        <v>189.21666666666599</v>
+        <v>187.21666666666599</v>
       </c>
       <c r="H30">
-        <v>195.38333333333301</v>
+        <v>194.183333333333</v>
       </c>
       <c r="J30">
-        <v>195.96666666666599</v>
+        <v>183.23333333333301</v>
       </c>
       <c r="K30">
-        <v>184.96666666666599</v>
+        <v>196.433333333333</v>
       </c>
       <c r="M30">
-        <v>192.81666666666601</v>
+        <v>186.13333333333301</v>
       </c>
       <c r="N30">
-        <v>188.85</v>
+        <v>199.53333333333299</v>
       </c>
       <c r="P30">
-        <v>192.31666666666601</v>
+        <v>201.35</v>
       </c>
       <c r="Q30">
-        <v>191.35</v>
+        <v>184.183333333333</v>
       </c>
       <c r="S30">
-        <v>199.96666666666599</v>
+        <v>194.11666666666599</v>
       </c>
       <c r="T30">
-        <v>179.166666666666</v>
+        <v>191.81666666666601</v>
       </c>
       <c r="V30">
-        <v>200.016666666666</v>
+        <v>195.61666666666599</v>
       </c>
       <c r="W30">
-        <v>181.516666666666</v>
+        <v>187.78333333333299</v>
       </c>
       <c r="Y30">
-        <v>197.766666666666</v>
+        <v>186.13333333333301</v>
       </c>
       <c r="Z30">
-        <v>183.7</v>
+        <v>193.6</v>
       </c>
       <c r="AB30">
-        <v>176.75</v>
+        <v>200.81666666666601</v>
       </c>
       <c r="AC30">
-        <v>202.78333333333299</v>
+        <v>185.25</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31">
-        <v>193.433333333333</v>
+        <v>193.85</v>
       </c>
       <c r="B31">
-        <v>196.63333333333301</v>
+        <v>200.75</v>
       </c>
       <c r="D31">
-        <v>207.28333333333299</v>
+        <v>205.5</v>
       </c>
       <c r="E31">
-        <v>189.25</v>
+        <v>190.166666666666</v>
       </c>
       <c r="G31">
-        <v>195.183333333333</v>
+        <v>194.31666666666601</v>
       </c>
       <c r="H31">
-        <v>201.61666666666599</v>
+        <v>199.28333333333299</v>
       </c>
       <c r="J31">
-        <v>203.78333333333299</v>
+        <v>190.46666666666599</v>
       </c>
       <c r="K31">
-        <v>189.75</v>
+        <v>202.53333333333299</v>
       </c>
       <c r="M31">
-        <v>199.98333333333301</v>
+        <v>191.8</v>
       </c>
       <c r="N31">
-        <v>194.55</v>
+        <v>205.333333333333</v>
       </c>
       <c r="P31">
-        <v>196.98333333333301</v>
+        <v>206.98333333333301</v>
       </c>
       <c r="Q31">
-        <v>198.81666666666601</v>
+        <v>191.28333333333299</v>
       </c>
       <c r="S31">
-        <v>206.75</v>
+        <v>199.45</v>
       </c>
       <c r="T31">
-        <v>184.05</v>
+        <v>198.48333333333301</v>
       </c>
       <c r="V31">
-        <v>205.38333333333301</v>
+        <v>202</v>
       </c>
       <c r="W31">
-        <v>188.88333333333301</v>
+        <v>194.933333333333</v>
       </c>
       <c r="Y31">
-        <v>203.75</v>
+        <v>192.666666666666</v>
       </c>
       <c r="Z31">
-        <v>190.71666666666599</v>
+        <v>200.86666666666599</v>
       </c>
       <c r="AB31">
-        <v>182.7</v>
+        <v>206.333333333333</v>
       </c>
       <c r="AC31">
-        <v>210.433333333333</v>
+        <v>191.933333333333</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32">
-        <v>202.06666666666601</v>
+        <v>198.36666666666599</v>
       </c>
       <c r="B32">
-        <v>202.06666666666601</v>
+        <v>207.96666666666599</v>
       </c>
       <c r="D32">
-        <v>213.06666666666601</v>
+        <v>212.38333333333301</v>
       </c>
       <c r="E32">
-        <v>195.933333333333</v>
+        <v>196.95</v>
       </c>
       <c r="G32">
-        <v>201.516666666666</v>
+        <v>200.4</v>
       </c>
       <c r="H32">
-        <v>208.21666666666599</v>
+        <v>206.13333333333301</v>
       </c>
       <c r="J32">
-        <v>209.75</v>
+        <v>195.1</v>
       </c>
       <c r="K32">
-        <v>195.98333333333301</v>
+        <v>210.1</v>
       </c>
       <c r="M32">
-        <v>206.46666666666599</v>
+        <v>199.183333333333</v>
       </c>
       <c r="N32">
-        <v>200.4</v>
+        <v>211.416666666666</v>
       </c>
       <c r="P32">
-        <v>202.73333333333301</v>
+        <v>213.88333333333301</v>
       </c>
       <c r="Q32">
-        <v>206.666666666666</v>
+        <v>197.31666666666601</v>
       </c>
       <c r="S32">
-        <v>213.2</v>
+        <v>205.63333333333301</v>
       </c>
       <c r="T32">
-        <v>191.13333333333301</v>
+        <v>204.63333333333301</v>
       </c>
       <c r="V32">
-        <v>211.78333333333299</v>
+        <v>208.11666666666599</v>
       </c>
       <c r="W32">
-        <v>195.75</v>
+        <v>201.28333333333299</v>
       </c>
       <c r="Y32">
-        <v>210.25</v>
+        <v>199.2</v>
       </c>
       <c r="Z32">
-        <v>195.88333333333301</v>
+        <v>207.666666666666</v>
       </c>
       <c r="AB32">
-        <v>188.516666666666</v>
+        <v>213.28333333333299</v>
       </c>
       <c r="AC32">
-        <v>218.15</v>
+        <v>197.98333333333301</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33">
-        <v>209.13333333333301</v>
+        <v>204.7</v>
       </c>
       <c r="B33">
-        <v>208.6</v>
+        <v>213.36666666666599</v>
       </c>
       <c r="D33">
-        <v>219.38333333333301</v>
+        <v>217.433333333333</v>
       </c>
       <c r="E33">
-        <v>202.21666666666599</v>
+        <v>203.5</v>
       </c>
       <c r="G33">
-        <v>207.516666666666</v>
+        <v>205.8</v>
       </c>
       <c r="H33">
-        <v>214.75</v>
+        <v>212.46666666666599</v>
       </c>
       <c r="J33">
-        <v>216.56666666666601</v>
+        <v>201.166666666666</v>
       </c>
       <c r="K33">
-        <v>201.96666666666599</v>
+        <v>217.36666666666599</v>
       </c>
       <c r="M33">
-        <v>214.016666666666</v>
+        <v>205.88333333333301</v>
       </c>
       <c r="N33">
-        <v>205.85</v>
+        <v>217.11666666666599</v>
       </c>
       <c r="P33">
-        <v>209.45</v>
+        <v>221.06666666666601</v>
       </c>
       <c r="Q33">
-        <v>212.28333333333299</v>
+        <v>203.333333333333</v>
       </c>
       <c r="S33">
-        <v>219.13333333333301</v>
+        <v>211.35</v>
       </c>
       <c r="T33">
-        <v>198.46666666666599</v>
+        <v>211.45</v>
       </c>
       <c r="V33">
-        <v>218.183333333333</v>
+        <v>213.916666666666</v>
       </c>
       <c r="W33">
-        <v>203.083333333333</v>
+        <v>207.15</v>
       </c>
       <c r="Y33">
-        <v>216.65</v>
+        <v>205.31666666666601</v>
       </c>
       <c r="Z33">
-        <v>201.48333333333301</v>
+        <v>213.016666666666</v>
       </c>
       <c r="AB33">
-        <v>193.81666666666601</v>
+        <v>217.63333333333301</v>
       </c>
       <c r="AC33">
-        <v>224.71666666666599</v>
+        <v>206.23333333333301</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34">
-        <v>216.88333333333301</v>
+        <v>209.55</v>
       </c>
       <c r="B34">
-        <v>213.916666666666</v>
+        <v>221.583333333333</v>
       </c>
       <c r="D34">
-        <v>225.516666666666</v>
+        <v>225.25</v>
       </c>
       <c r="E34">
-        <v>208.35</v>
+        <v>208.15</v>
       </c>
       <c r="G34">
-        <v>215.11666666666599</v>
+        <v>212.38333333333301</v>
       </c>
       <c r="H34">
-        <v>218.88333333333301</v>
+        <v>218.95</v>
       </c>
       <c r="J34">
-        <v>224.5</v>
+        <v>207.8</v>
       </c>
       <c r="K34">
-        <v>207.23333333333301</v>
+        <v>223.46666666666599</v>
       </c>
       <c r="M34">
-        <v>219.933333333333</v>
+        <v>213.73333333333301</v>
       </c>
       <c r="N34">
-        <v>213.53333333333299</v>
+        <v>221.73333333333301</v>
       </c>
       <c r="P34">
-        <v>216.13333333333301</v>
+        <v>227.13333333333301</v>
       </c>
       <c r="Q34">
-        <v>218.6</v>
+        <v>209.2</v>
       </c>
       <c r="S34">
-        <v>226.433333333333</v>
+        <v>217.48333333333301</v>
       </c>
       <c r="T34">
-        <v>204.1</v>
+        <v>216.916666666666</v>
       </c>
       <c r="V34">
-        <v>224.016666666666</v>
+        <v>220.933333333333</v>
       </c>
       <c r="W34">
-        <v>209.25</v>
+        <v>213.333333333333</v>
       </c>
       <c r="Y34">
-        <v>222.85</v>
+        <v>211.8</v>
       </c>
       <c r="Z34">
-        <v>207.75</v>
+        <v>218.86666666666599</v>
       </c>
       <c r="AB34">
-        <v>198.36666666666599</v>
+        <v>222.35</v>
       </c>
       <c r="AC34">
-        <v>232.56666666666601</v>
+        <v>214.05</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35">
-        <v>222.183333333333</v>
+        <v>215.5</v>
       </c>
       <c r="B35">
-        <v>220.55</v>
+        <v>227.1</v>
       </c>
       <c r="D35">
-        <v>231.48333333333301</v>
+        <v>231.3</v>
       </c>
       <c r="E35">
-        <v>214.916666666666</v>
+        <v>214.03333333333299</v>
       </c>
       <c r="G35">
-        <v>221.416666666666</v>
+        <v>218.516666666666</v>
       </c>
       <c r="H35">
-        <v>225.583333333333</v>
+        <v>226.416666666666</v>
       </c>
       <c r="J35">
-        <v>230.95</v>
+        <v>215.35</v>
       </c>
       <c r="K35">
-        <v>212.31666666666601</v>
+        <v>228.25</v>
       </c>
       <c r="M35">
-        <v>226.5</v>
+        <v>218.06666666666601</v>
       </c>
       <c r="N35">
-        <v>217.833333333333</v>
+        <v>228.8</v>
       </c>
       <c r="P35">
-        <v>222.85</v>
+        <v>233.8</v>
       </c>
       <c r="Q35">
-        <v>224.016666666666</v>
+        <v>215.06666666666601</v>
       </c>
       <c r="S35">
-        <v>231.516666666666</v>
+        <v>223.23333333333301</v>
       </c>
       <c r="T35">
-        <v>209.683333333333</v>
+        <v>223.3</v>
       </c>
       <c r="V35">
-        <v>230.81666666666601</v>
+        <v>226.15</v>
       </c>
       <c r="W35">
-        <v>215.05</v>
+        <v>219.11666666666599</v>
       </c>
       <c r="Y35">
-        <v>228.7</v>
+        <v>218.45</v>
       </c>
       <c r="Z35">
-        <v>214.166666666666</v>
+        <v>226.15</v>
       </c>
       <c r="AB35">
-        <v>206.48333333333301</v>
+        <v>227.48333333333301</v>
       </c>
       <c r="AC35">
-        <v>237.916666666666</v>
+        <v>220.25</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36">
-        <v>226.8</v>
+        <v>222.11666666666599</v>
       </c>
       <c r="B36">
-        <v>227</v>
+        <v>232.21666666666599</v>
       </c>
       <c r="D36">
-        <v>236.73333333333301</v>
+        <v>237</v>
       </c>
       <c r="E36">
-        <v>221.86666666666599</v>
+        <v>221.6</v>
       </c>
       <c r="G36">
-        <v>226.35</v>
+        <v>225</v>
       </c>
       <c r="H36">
-        <v>233.05</v>
+        <v>232.4</v>
       </c>
       <c r="J36">
-        <v>237.61666666666599</v>
+        <v>221.06666666666601</v>
       </c>
       <c r="K36">
-        <v>217.98333333333301</v>
+        <v>233.8</v>
       </c>
       <c r="M36">
-        <v>232.683333333333</v>
+        <v>224.666666666666</v>
       </c>
       <c r="N36">
-        <v>224.38333333333301</v>
+        <v>234.2</v>
       </c>
       <c r="P36">
-        <v>229.56666666666601</v>
+        <v>239.933333333333</v>
       </c>
       <c r="Q36">
-        <v>229.9</v>
+        <v>220.666666666666</v>
       </c>
       <c r="S36">
-        <v>238.766666666666</v>
+        <v>229.916666666666</v>
       </c>
       <c r="T36">
-        <v>215.03333333333299</v>
+        <v>229.88333333333301</v>
       </c>
       <c r="V36">
-        <v>236.7</v>
+        <v>232.96666666666599</v>
       </c>
       <c r="W36">
-        <v>221.96666666666599</v>
+        <v>223.166666666666</v>
       </c>
       <c r="Y36">
-        <v>235.5</v>
+        <v>223.916666666666</v>
       </c>
       <c r="Z36">
-        <v>219.63333333333301</v>
+        <v>231.21666666666599</v>
       </c>
       <c r="AB36">
-        <v>212.11666666666599</v>
+        <v>232.73333333333301</v>
       </c>
       <c r="AC36">
-        <v>244.15</v>
+        <v>226.73333333333301</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37">
-        <v>233.65</v>
+        <v>228.88333333333301</v>
       </c>
       <c r="B37">
-        <v>231.75</v>
+        <v>236.916666666666</v>
       </c>
       <c r="D37">
-        <v>241.81666666666601</v>
+        <v>242.65</v>
       </c>
       <c r="E37">
-        <v>227.916666666666</v>
+        <v>227.683333333333</v>
       </c>
       <c r="G37">
-        <v>230.61666666666599</v>
+        <v>230.15</v>
       </c>
       <c r="H37">
-        <v>240.583333333333</v>
+        <v>237.25</v>
       </c>
       <c r="J37">
-        <v>242.166666666666</v>
+        <v>226.1</v>
       </c>
       <c r="K37">
-        <v>224.166666666666</v>
+        <v>240.56666666666601</v>
       </c>
       <c r="M37">
-        <v>238.25</v>
+        <v>229.53333333333299</v>
       </c>
       <c r="N37">
-        <v>230.416666666666</v>
+        <v>240.333333333333</v>
       </c>
       <c r="P37">
-        <v>232.583333333333</v>
+        <v>245</v>
       </c>
       <c r="Q37">
-        <v>236.88333333333301</v>
+        <v>227.933333333333</v>
       </c>
       <c r="S37">
-        <v>244.45</v>
+        <v>237.45</v>
       </c>
       <c r="T37">
-        <v>221.48333333333301</v>
+        <v>234.61666666666599</v>
       </c>
       <c r="V37">
-        <v>242.31666666666601</v>
+        <v>240.2</v>
       </c>
       <c r="W37">
-        <v>228.35</v>
+        <v>227.13333333333301</v>
       </c>
       <c r="Y37">
-        <v>242.183333333333</v>
+        <v>229.5</v>
       </c>
       <c r="Z37">
-        <v>225.48333333333301</v>
+        <v>238.63333333333301</v>
       </c>
       <c r="AB37">
-        <v>219.56666666666601</v>
+        <v>237.933333333333</v>
       </c>
       <c r="AC37">
-        <v>249.7</v>
+        <v>233.4</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38">
-        <v>239.683333333333</v>
+        <v>235.03333333333299</v>
       </c>
       <c r="B38">
-        <v>236.65</v>
+        <v>242.433333333333</v>
       </c>
       <c r="D38">
-        <v>246.916666666666</v>
+        <v>245.86666666666599</v>
       </c>
       <c r="E38">
-        <v>234.35</v>
+        <v>233.13333333333301</v>
       </c>
       <c r="G38">
-        <v>236.11666666666599</v>
+        <v>233.516666666666</v>
       </c>
       <c r="H38">
-        <v>246.81666666666601</v>
+        <v>244.21666666666599</v>
       </c>
       <c r="J38">
-        <v>247.183333333333</v>
+        <v>231.9</v>
       </c>
       <c r="K38">
-        <v>230.55</v>
+        <v>245.36666666666599</v>
       </c>
       <c r="M38">
-        <v>244.833333333333</v>
+        <v>236.433333333333</v>
       </c>
       <c r="N38">
-        <v>236.3</v>
+        <v>244.766666666666</v>
       </c>
       <c r="P38">
-        <v>238.65</v>
+        <v>249.3</v>
       </c>
       <c r="Q38">
-        <v>243.81666666666601</v>
+        <v>233.96666666666599</v>
       </c>
       <c r="S38">
-        <v>251.5</v>
+        <v>242.28333333333299</v>
       </c>
       <c r="T38">
-        <v>226.7</v>
+        <v>241.71666666666599</v>
       </c>
       <c r="V38">
-        <v>248.9</v>
+        <v>244.666666666666</v>
       </c>
       <c r="W38">
-        <v>232.36666666666599</v>
+        <v>233.13333333333301</v>
       </c>
       <c r="Y38">
-        <v>248.06666666666601</v>
+        <v>236.083333333333</v>
       </c>
       <c r="Z38">
-        <v>231.13333333333301</v>
+        <v>243.65</v>
       </c>
       <c r="AB38">
-        <v>226.683333333333</v>
+        <v>244.416666666666</v>
       </c>
       <c r="AC38">
-        <v>253.98333333333301</v>
+        <v>237.98333333333301</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39">
-        <v>244.05</v>
+        <v>240.583333333333</v>
       </c>
       <c r="B39">
-        <v>242.48333333333301</v>
+        <v>249.21666666666599</v>
       </c>
       <c r="D39">
-        <v>252.266666666666</v>
+        <v>250.766666666666</v>
       </c>
       <c r="E39">
-        <v>240.73333333333301</v>
+        <v>239.36666666666599</v>
       </c>
       <c r="G39">
-        <v>242.56666666666601</v>
+        <v>238.916666666666</v>
       </c>
       <c r="H39">
-        <v>251.03333333333299</v>
+        <v>248.55</v>
       </c>
       <c r="J39">
-        <v>252.516666666666</v>
+        <v>237.53333333333299</v>
       </c>
       <c r="K39">
-        <v>236.416666666666</v>
+        <v>250.8</v>
       </c>
       <c r="M39">
-        <v>249</v>
+        <v>242.35</v>
       </c>
       <c r="N39">
-        <v>242.266666666666</v>
+        <v>251.183333333333</v>
       </c>
       <c r="P39">
-        <v>246.78333333333299</v>
+        <v>253.766666666666</v>
       </c>
       <c r="Q39">
-        <v>247.35</v>
+        <v>240.96666666666599</v>
       </c>
       <c r="S39">
-        <v>256.61666666666599</v>
+        <v>247.65</v>
       </c>
       <c r="T39">
-        <v>233.78333333333299</v>
+        <v>247.016666666666</v>
       </c>
       <c r="V39">
-        <v>252.766666666666</v>
+        <v>250.5</v>
       </c>
       <c r="W39">
-        <v>239.9</v>
+        <v>237.7</v>
       </c>
       <c r="Y39">
-        <v>252.75</v>
+        <v>240.8</v>
       </c>
       <c r="Z39">
-        <v>234.98333333333301</v>
+        <v>249.46666666666599</v>
       </c>
       <c r="AB39">
-        <v>232.13333333333301</v>
+        <v>249.03333333333299</v>
       </c>
       <c r="AC39">
-        <v>259.39999999999998</v>
+        <v>243.03333333333299</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40">
-        <v>248.95</v>
+        <v>246.7</v>
       </c>
       <c r="B40">
-        <v>246.183333333333</v>
+        <v>252.9</v>
       </c>
       <c r="D40">
-        <v>257.28333333333302</v>
+        <v>254.81666666666601</v>
       </c>
       <c r="E40">
-        <v>246.25</v>
+        <v>244.85</v>
       </c>
       <c r="G40">
-        <v>248.4</v>
+        <v>243.416666666666</v>
       </c>
       <c r="H40">
-        <v>256.53333333333302</v>
+        <v>252.65</v>
       </c>
       <c r="J40">
-        <v>257.85000000000002</v>
+        <v>244.71666666666599</v>
       </c>
       <c r="K40">
-        <v>240.48333333333301</v>
+        <v>254.75</v>
       </c>
       <c r="M40">
-        <v>255.15</v>
+        <v>248.3</v>
       </c>
       <c r="N40">
-        <v>247.98333333333301</v>
+        <v>255.56666666666601</v>
       </c>
       <c r="P40">
-        <v>254.1</v>
+        <v>258.916666666666</v>
       </c>
       <c r="Q40">
-        <v>251.63333333333301</v>
+        <v>247.95</v>
       </c>
       <c r="S40">
-        <v>261.48333333333301</v>
+        <v>254.05</v>
       </c>
       <c r="T40">
-        <v>240.98333333333301</v>
+        <v>251.48333333333301</v>
       </c>
       <c r="V40">
-        <v>258.64999999999998</v>
+        <v>254.25</v>
       </c>
       <c r="W40">
-        <v>243.81666666666601</v>
+        <v>245.683333333333</v>
       </c>
       <c r="Y40">
-        <v>257.75</v>
+        <v>246.016666666666</v>
       </c>
       <c r="Z40">
-        <v>240.38333333333301</v>
+        <v>255.583333333333</v>
       </c>
       <c r="AB40">
-        <v>237.78333333333299</v>
+        <v>253.23333333333301</v>
       </c>
       <c r="AC40">
-        <v>265.35000000000002</v>
+        <v>249.23333333333301</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41">
-        <v>253.9</v>
+        <v>250.21666666666599</v>
       </c>
       <c r="B41">
-        <v>251.23333333333301</v>
+        <v>256.51666666666603</v>
       </c>
       <c r="D41">
-        <v>260.916666666666</v>
+        <v>259.5</v>
       </c>
       <c r="E41">
-        <v>252.28333333333299</v>
+        <v>249.96666666666599</v>
       </c>
       <c r="G41">
-        <v>253.78333333333299</v>
+        <v>249.65</v>
       </c>
       <c r="H41">
-        <v>261.61666666666599</v>
+        <v>256.61666666666599</v>
       </c>
       <c r="J41">
-        <v>260.666666666666</v>
+        <v>249.81666666666601</v>
       </c>
       <c r="K41">
-        <v>247.53333333333299</v>
+        <v>258.51666666666603</v>
       </c>
       <c r="M41">
-        <v>260.21666666666601</v>
+        <v>253.15</v>
       </c>
       <c r="N41">
-        <v>253.05</v>
+        <v>260.11666666666599</v>
       </c>
       <c r="P41">
-        <v>258.2</v>
+        <v>264.56666666666598</v>
       </c>
       <c r="Q41">
-        <v>256.60000000000002</v>
+        <v>252.9</v>
       </c>
       <c r="S41">
-        <v>266.75</v>
+        <v>260.2</v>
       </c>
       <c r="T41">
-        <v>246.916666666666</v>
+        <v>255</v>
       </c>
       <c r="V41">
-        <v>261.36666666666599</v>
+        <v>259.46666666666601</v>
       </c>
       <c r="W41">
-        <v>249.166666666666</v>
+        <v>249.73333333333301</v>
       </c>
       <c r="Y41">
-        <v>265</v>
+        <v>251.183333333333</v>
       </c>
       <c r="Z41">
-        <v>242.666666666666</v>
+        <v>261.14999999999998</v>
       </c>
       <c r="AB41">
-        <v>243.46666666666599</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="AC41">
-        <v>269.33333333333297</v>
+        <v>253.63333333333301</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42">
-        <v>259.21666666666601</v>
+        <v>254.933333333333</v>
       </c>
       <c r="B42">
-        <v>255.583333333333</v>
+        <v>260.2</v>
       </c>
       <c r="D42">
-        <v>263.71666666666601</v>
+        <v>263.03333333333302</v>
       </c>
       <c r="E42">
-        <v>259.35000000000002</v>
+        <v>256.36666666666599</v>
       </c>
       <c r="G42">
-        <v>257.2</v>
+        <v>253.1</v>
       </c>
       <c r="H42">
-        <v>265.666666666666</v>
+        <v>260.96666666666601</v>
       </c>
       <c r="J42">
-        <v>266.39999999999998</v>
+        <v>254.266666666666</v>
       </c>
       <c r="K42">
-        <v>251.46666666666599</v>
+        <v>262.933333333333</v>
       </c>
       <c r="M42">
-        <v>263.916666666666</v>
+        <v>257.683333333333</v>
       </c>
       <c r="N42">
-        <v>258.683333333333</v>
+        <v>266.31666666666598</v>
       </c>
       <c r="P42">
-        <v>262.5</v>
+        <v>270.433333333333</v>
       </c>
       <c r="Q42">
-        <v>260.89999999999998</v>
+        <v>257.03333333333302</v>
       </c>
       <c r="S42">
-        <v>270.933333333333</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="T42">
-        <v>251.2</v>
+        <v>261.36666666666599</v>
       </c>
       <c r="V42">
-        <v>264.95</v>
+        <v>263.31666666666598</v>
       </c>
       <c r="W42">
-        <v>253.85</v>
+        <v>256.14999999999998</v>
       </c>
       <c r="Y42">
-        <v>270.2</v>
+        <v>255.73333333333301</v>
       </c>
       <c r="Z42">
-        <v>248.266666666666</v>
+        <v>264.8</v>
       </c>
       <c r="AB42">
-        <v>249.61666666666599</v>
+        <v>261.2</v>
       </c>
       <c r="AC42">
-        <v>271.45</v>
+        <v>259.39999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43">
-        <v>265.83333333333297</v>
+        <v>258.08333333333297</v>
       </c>
       <c r="B43">
-        <v>258.36666666666599</v>
+        <v>263.58333333333297</v>
       </c>
       <c r="D43">
-        <v>267.46666666666601</v>
+        <v>266.916666666666</v>
       </c>
       <c r="E43">
-        <v>264.86666666666599</v>
+        <v>261.21666666666601</v>
       </c>
       <c r="G43">
-        <v>262.10000000000002</v>
+        <v>257.5</v>
       </c>
       <c r="H43">
-        <v>269.433333333333</v>
+        <v>264.63333333333298</v>
       </c>
       <c r="J43">
-        <v>268.666666666666</v>
+        <v>257.76666666666603</v>
       </c>
       <c r="K43">
-        <v>255.46666666666599</v>
+        <v>267.433333333333</v>
       </c>
       <c r="M43">
-        <v>268.45</v>
+        <v>262.2</v>
       </c>
       <c r="N43">
-        <v>263.01666666666603</v>
+        <v>270.06666666666598</v>
       </c>
       <c r="P43">
-        <v>265.88333333333298</v>
+        <v>273.81666666666598</v>
       </c>
       <c r="Q43">
-        <v>264.78333333333302</v>
+        <v>261.916666666666</v>
       </c>
       <c r="S43">
-        <v>273.60000000000002</v>
+        <v>271.61666666666599</v>
       </c>
       <c r="T43">
-        <v>256.86666666666599</v>
+        <v>265.58333333333297</v>
       </c>
       <c r="V43">
-        <v>267.89999999999998</v>
+        <v>267.03333333333302</v>
       </c>
       <c r="W43">
-        <v>258.83333333333297</v>
+        <v>259.96666666666601</v>
       </c>
       <c r="Y43">
-        <v>275.48333333333301</v>
+        <v>261.21666666666601</v>
       </c>
       <c r="Z43">
-        <v>252.31666666666601</v>
+        <v>267.51666666666603</v>
       </c>
       <c r="AB43">
-        <v>254.85</v>
+        <v>265.55</v>
       </c>
       <c r="AC43">
-        <v>273.61666666666599</v>
+        <v>263.51666666666603</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44">
-        <v>270.933333333333</v>
+        <v>263.3</v>
       </c>
       <c r="B44">
-        <v>262.73333333333301</v>
+        <v>266.3</v>
       </c>
       <c r="D44">
-        <v>270.166666666666</v>
+        <v>269.63333333333298</v>
       </c>
       <c r="E44">
-        <v>268.89999999999998</v>
+        <v>264.96666666666601</v>
       </c>
       <c r="G44">
-        <v>265.416666666666</v>
+        <v>260.81666666666598</v>
       </c>
       <c r="H44">
-        <v>271.78333333333302</v>
+        <v>267.183333333333</v>
       </c>
       <c r="J44">
-        <v>270.08333333333297</v>
+        <v>262.85000000000002</v>
       </c>
       <c r="K44">
-        <v>260.71666666666601</v>
+        <v>271.416666666666</v>
       </c>
       <c r="M44">
-        <v>271.73333333333301</v>
+        <v>268.13333333333298</v>
       </c>
       <c r="N44">
+        <v>272.73333333333301</v>
+      </c>
+      <c r="P44">
+        <v>277.06666666666598</v>
+      </c>
+      <c r="Q44">
         <v>266.13333333333298</v>
       </c>
-      <c r="P44">
-        <v>270.03333333333302</v>
-      </c>
-      <c r="Q44">
-        <v>267.76666666666603</v>
-      </c>
       <c r="S44">
-        <v>275.73333333333301</v>
+        <v>274.78333333333302</v>
       </c>
       <c r="T44">
-        <v>260.53333333333302</v>
+        <v>271.28333333333302</v>
       </c>
       <c r="V44">
-        <v>270.51666666666603</v>
+        <v>270.86666666666599</v>
       </c>
       <c r="W44">
-        <v>262.28333333333302</v>
+        <v>264.53333333333302</v>
       </c>
       <c r="Y44">
-        <v>279.98333333333301</v>
+        <v>262.95</v>
       </c>
       <c r="Z44">
-        <v>256.35000000000002</v>
+        <v>270.183333333333</v>
       </c>
       <c r="AB44">
-        <v>258.83333333333297</v>
+        <v>267.81666666666598</v>
       </c>
       <c r="AC44">
-        <v>274.96666666666601</v>
+        <v>268.71666666666601</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45">
-        <v>273.35000000000002</v>
+        <v>267.14999999999998</v>
       </c>
       <c r="B45">
-        <v>267.05</v>
+        <v>268.45</v>
       </c>
       <c r="D45">
-        <v>272.33333333333297</v>
+        <v>273.64999999999998</v>
       </c>
       <c r="E45">
-        <v>271.53333333333302</v>
+        <v>268.21666666666601</v>
       </c>
       <c r="G45">
-        <v>267.7</v>
+        <v>264.36666666666599</v>
       </c>
       <c r="H45">
-        <v>274.3</v>
+        <v>270.7</v>
       </c>
       <c r="J45">
-        <v>272.13333333333298</v>
+        <v>267.38333333333298</v>
       </c>
       <c r="K45">
-        <v>265.933333333333</v>
+        <v>274.01666666666603</v>
       </c>
       <c r="M45">
-        <v>273.01666666666603</v>
+        <v>270.36666666666599</v>
       </c>
       <c r="N45">
-        <v>268.85000000000002</v>
+        <v>275.3</v>
       </c>
       <c r="P45">
-        <v>273.64999999999998</v>
+        <v>278.71666666666601</v>
       </c>
       <c r="Q45">
-        <v>271.08333333333297</v>
+        <v>269.28333333333302</v>
       </c>
       <c r="S45">
-        <v>276.61666666666599</v>
+        <v>276.39999999999998</v>
       </c>
       <c r="T45">
-        <v>264.78333333333302</v>
+        <v>276.06666666666598</v>
       </c>
       <c r="V45">
-        <v>272</v>
+        <v>274.28333333333302</v>
       </c>
       <c r="W45">
-        <v>265.73333333333301</v>
+        <v>268.64999999999998</v>
       </c>
       <c r="Y45">
-        <v>281.14999999999998</v>
+        <v>267.14999999999998</v>
       </c>
       <c r="Z45">
-        <v>260.916666666666</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="AB45">
-        <v>265.46666666666601</v>
+        <v>270.166666666666</v>
       </c>
       <c r="AC45">
-        <v>275.2</v>
+        <v>273.56666666666598</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46">
-        <v>275.96666666666601</v>
+        <v>269.46666666666601</v>
       </c>
       <c r="B46">
-        <v>269.89999999999998</v>
+        <v>272</v>
       </c>
       <c r="D46">
-        <v>272.23333333333301</v>
+        <v>276.683333333333</v>
       </c>
       <c r="E46">
-        <v>272.433333333333</v>
+        <v>269.64999999999998</v>
       </c>
       <c r="G46">
-        <v>271.33333333333297</v>
+        <v>267.51666666666603</v>
       </c>
       <c r="H46">
-        <v>275.06666666666598</v>
+        <v>271.01666666666603</v>
       </c>
       <c r="J46">
-        <v>273.75</v>
+        <v>271.08333333333297</v>
       </c>
       <c r="K46">
-        <v>268.38333333333298</v>
+        <v>275.58333333333297</v>
       </c>
       <c r="M46">
-        <v>274.81666666666598</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="N46">
-        <v>272.71666666666601</v>
+        <v>276.73333333333301</v>
       </c>
       <c r="P46">
-        <v>277.14999999999998</v>
+        <v>280.56666666666598</v>
       </c>
       <c r="Q46">
-        <v>274.51666666666603</v>
+        <v>271.83333333333297</v>
       </c>
       <c r="S46">
-        <v>277.56666666666598</v>
+        <v>277.11666666666599</v>
       </c>
       <c r="T46">
-        <v>268.10000000000002</v>
+        <v>276.683333333333</v>
       </c>
       <c r="V46">
-        <v>273.416666666666</v>
+        <v>274.26666666666603</v>
       </c>
       <c r="W46">
-        <v>268.31666666666598</v>
+        <v>271.666666666666</v>
       </c>
       <c r="Y46">
-        <v>280.5</v>
+        <v>270</v>
       </c>
       <c r="Z46">
-        <v>265.89999999999998</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="AB46">
-        <v>266.76666666666603</v>
+        <v>272.58333333333297</v>
       </c>
       <c r="AC46">
-        <v>276.10000000000002</v>
+        <v>276.21666666666601</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47">
-        <v>278.46666666666601</v>
+        <v>270.01666666666603</v>
       </c>
       <c r="B47">
-        <v>270.933333333333</v>
+        <v>273.58333333333297</v>
       </c>
       <c r="D47">
+        <v>277.166666666666</v>
+      </c>
+      <c r="E47">
+        <v>271.433333333333</v>
+      </c>
+      <c r="G47">
+        <v>270.06666666666598</v>
+      </c>
+      <c r="H47">
+        <v>271.33333333333297</v>
+      </c>
+      <c r="J47">
+        <v>274.48333333333301</v>
+      </c>
+      <c r="K47">
+        <v>276.78333333333302</v>
+      </c>
+      <c r="M47">
+        <v>275.11666666666599</v>
+      </c>
+      <c r="N47">
+        <v>277.35000000000002</v>
+      </c>
+      <c r="P47">
+        <v>279.58333333333297</v>
+      </c>
+      <c r="Q47">
+        <v>273.75</v>
+      </c>
+      <c r="S47">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="T47">
+        <v>277.166666666666</v>
+      </c>
+      <c r="V47">
+        <v>275.61666666666599</v>
+      </c>
+      <c r="W47">
         <v>272.85000000000002</v>
       </c>
-      <c r="E47">
-        <v>272.48333333333301</v>
-      </c>
-      <c r="G47">
-        <v>274.166666666666</v>
-      </c>
-      <c r="H47">
-        <v>278.36666666666599</v>
-      </c>
-      <c r="J47">
-        <v>273.73333333333301</v>
-      </c>
-      <c r="K47">
-        <v>270</v>
-      </c>
-      <c r="M47">
-        <v>275.10000000000002</v>
-      </c>
-      <c r="N47">
-        <v>275.56666666666598</v>
-      </c>
-      <c r="P47">
-        <v>277.53333333333302</v>
-      </c>
-      <c r="Q47">
-        <v>275.33333333333297</v>
-      </c>
-      <c r="S47">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="T47">
-        <v>271.96666666666601</v>
-      </c>
-      <c r="V47">
-        <v>273.2</v>
-      </c>
-      <c r="W47">
-        <v>270</v>
-      </c>
       <c r="Y47">
-        <v>279.39999999999998</v>
+        <v>271.683333333333</v>
       </c>
       <c r="Z47">
-        <v>267.73333333333301</v>
+        <v>272.916666666666</v>
       </c>
       <c r="AB47">
-        <v>269.76666666666603</v>
+        <v>273.06666666666598</v>
       </c>
       <c r="AC47">
-        <v>275.89999999999998</v>
+        <v>279.26666666666603</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48">
+        <v>272.76666666666603</v>
+      </c>
+      <c r="B48">
+        <v>274.7</v>
+      </c>
+      <c r="D48">
+        <v>277.06666666666598</v>
+      </c>
+      <c r="E48">
+        <v>273.26666666666603</v>
+      </c>
+      <c r="G48">
+        <v>273.06666666666598</v>
+      </c>
+      <c r="H48">
+        <v>271.8</v>
+      </c>
+      <c r="J48">
+        <v>274.86666666666599</v>
+      </c>
+      <c r="K48">
+        <v>276.86666666666599</v>
+      </c>
+      <c r="M48">
+        <v>276.35000000000002</v>
+      </c>
+      <c r="N48">
+        <v>276.51666666666603</v>
+      </c>
+      <c r="P48">
+        <v>277.76666666666603</v>
+      </c>
+      <c r="Q48">
+        <v>274.56666666666598</v>
+      </c>
+      <c r="S48">
         <v>278.53333333333302</v>
       </c>
-      <c r="B48">
-        <v>272</v>
-      </c>
-      <c r="D48">
-        <v>273.31666666666598</v>
-      </c>
-      <c r="E48">
-        <v>274.95</v>
-      </c>
-      <c r="G48">
-        <v>276.13333333333298</v>
-      </c>
-      <c r="H48">
-        <v>278.26666666666603</v>
-      </c>
-      <c r="J48">
-        <v>275.51666666666603</v>
-      </c>
-      <c r="K48">
-        <v>272.28333333333302</v>
-      </c>
-      <c r="M48">
-        <v>275.14999999999998</v>
-      </c>
-      <c r="N48">
-        <v>275.58333333333297</v>
-      </c>
-      <c r="P48">
-        <v>277.89999999999998</v>
-      </c>
-      <c r="Q48">
-        <v>275.03333333333302</v>
-      </c>
-      <c r="S48">
-        <v>277.53333333333302</v>
-      </c>
       <c r="T48">
-        <v>275.2</v>
+        <v>278.46666666666601</v>
       </c>
       <c r="V48">
-        <v>273.08333333333297</v>
+        <v>275.78333333333302</v>
       </c>
       <c r="W48">
-        <v>271.51666666666603</v>
+        <v>274.35000000000002</v>
       </c>
       <c r="Y48">
-        <v>278.48333333333301</v>
+        <v>272.63333333333298</v>
       </c>
       <c r="Z48">
-        <v>271.45</v>
+        <v>273.433333333333</v>
       </c>
       <c r="AB48">
-        <v>272.2</v>
+        <v>273.183333333333</v>
       </c>
       <c r="AC48">
-        <v>275.39999999999998</v>
+        <v>280.416666666666</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49">
-        <v>277.83333333333297</v>
+        <v>273.88333333333298</v>
       </c>
       <c r="B49">
-        <v>273.03333333333302</v>
+        <v>273.64999999999998</v>
       </c>
       <c r="D49">
-        <v>272.85000000000002</v>
+        <v>276.13333333333298</v>
       </c>
       <c r="E49">
-        <v>274.81666666666598</v>
+        <v>273.26666666666603</v>
       </c>
       <c r="G49">
-        <v>276.666666666666</v>
+        <v>275.06666666666598</v>
       </c>
       <c r="H49">
-        <v>278</v>
+        <v>271.39999999999998</v>
       </c>
       <c r="J49">
+        <v>274.11666666666599</v>
+      </c>
+      <c r="K49">
+        <v>276.21666666666601</v>
+      </c>
+      <c r="M49">
+        <v>276.13333333333298</v>
+      </c>
+      <c r="N49">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="P49">
         <v>275.56666666666598</v>
       </c>
-      <c r="K49">
-        <v>273.56666666666598</v>
-      </c>
-      <c r="M49">
-        <v>274.55</v>
-      </c>
-      <c r="N49">
-        <v>277.85000000000002</v>
-      </c>
-      <c r="P49">
-        <v>276.96666666666601</v>
-      </c>
       <c r="Q49">
-        <v>275.56666666666598</v>
+        <v>274.56666666666598</v>
       </c>
       <c r="S49">
-        <v>275.86666666666599</v>
+        <v>277.71666666666601</v>
       </c>
       <c r="T49">
-        <v>276.06666666666598</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="V49">
-        <v>272.03333333333302</v>
+        <v>275.85000000000002</v>
       </c>
       <c r="W49">
-        <v>273.56666666666598</v>
+        <v>275.61666666666599</v>
       </c>
       <c r="Y49">
-        <v>275.86666666666599</v>
+        <v>273.48333333333301</v>
       </c>
       <c r="Z49">
-        <v>274.33333333333297</v>
+        <v>273.71666666666601</v>
       </c>
       <c r="AB49">
-        <v>273.51666666666603</v>
+        <v>273.416666666666</v>
       </c>
       <c r="AC49">
-        <v>273.75</v>
+        <v>281.31666666666598</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50">
-        <v>276.06666666666598</v>
+        <v>273.76666666666603</v>
       </c>
       <c r="B50">
-        <v>271.8</v>
+        <v>273.5</v>
       </c>
       <c r="D50">
+        <v>274.183333333333</v>
+      </c>
+      <c r="E50">
+        <v>272.55</v>
+      </c>
+      <c r="G50">
+        <v>275.683333333333</v>
+      </c>
+      <c r="H50">
+        <v>270.11666666666599</v>
+      </c>
+      <c r="J50">
+        <v>273.85000000000002</v>
+      </c>
+      <c r="K50">
+        <v>274.81666666666598</v>
+      </c>
+      <c r="M50">
+        <v>274.88333333333298</v>
+      </c>
+      <c r="N50">
+        <v>272.98333333333301</v>
+      </c>
+      <c r="P50">
+        <v>275.31666666666598</v>
+      </c>
+      <c r="Q50">
+        <v>276.35000000000002</v>
+      </c>
+      <c r="S50">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="T50">
+        <v>278.23333333333301</v>
+      </c>
+      <c r="V50">
+        <v>275.25</v>
+      </c>
+      <c r="W50">
+        <v>274.88333333333298</v>
+      </c>
+      <c r="Y50">
+        <v>273.7</v>
+      </c>
+      <c r="Z50">
+        <v>274.166666666666</v>
+      </c>
+      <c r="AB50">
         <v>273</v>
       </c>
-      <c r="E50">
-        <v>272.73333333333301</v>
-      </c>
-      <c r="G50">
-        <v>275.56666666666598</v>
-      </c>
-      <c r="H50">
-        <v>276.89999999999998</v>
-      </c>
-      <c r="J50">
-        <v>274.433333333333</v>
-      </c>
-      <c r="K50">
-        <v>275.10000000000002</v>
-      </c>
-      <c r="M50">
-        <v>272.46666666666601</v>
-      </c>
-      <c r="N50">
-        <v>278.53333333333302</v>
-      </c>
-      <c r="P50">
-        <v>275.3</v>
-      </c>
-      <c r="Q50">
-        <v>275.83333333333297</v>
-      </c>
-      <c r="S50">
-        <v>274.3</v>
-      </c>
-      <c r="T50">
-        <v>275.5</v>
-      </c>
-      <c r="V50">
-        <v>270.53333333333302</v>
-      </c>
-      <c r="W50">
-        <v>273.13333333333298</v>
-      </c>
-      <c r="Y50">
-        <v>273.2</v>
-      </c>
-      <c r="Z50">
-        <v>275.26666666666603</v>
-      </c>
-      <c r="AB50">
-        <v>276.75</v>
-      </c>
       <c r="AC50">
-        <v>272.05</v>
+        <v>279.933333333333</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51">
-        <v>275.13333333333298</v>
+        <v>273.88333333333298</v>
       </c>
       <c r="B51">
-        <v>271.06666666666598</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="D51">
-        <v>272.8</v>
+        <v>272.45</v>
       </c>
       <c r="E51">
-        <v>270.39999999999998</v>
+        <v>271.21666666666601</v>
       </c>
       <c r="G51">
-        <v>274.2</v>
+        <v>273.96666666666601</v>
       </c>
       <c r="H51">
-        <v>275.06666666666598</v>
+        <v>268.7</v>
       </c>
       <c r="J51">
-        <v>273.183333333333</v>
+        <v>273.88333333333298</v>
       </c>
       <c r="K51">
-        <v>275.683333333333</v>
+        <v>273.45</v>
       </c>
       <c r="M51">
-        <v>271.39999999999998</v>
+        <v>273.3</v>
       </c>
       <c r="N51">
-        <v>277.60000000000002</v>
+        <v>272.36666666666599</v>
       </c>
       <c r="P51">
-        <v>273.96666666666601</v>
+        <v>274.23333333333301</v>
       </c>
       <c r="Q51">
-        <v>275.36666666666599</v>
+        <v>275.96666666666601</v>
       </c>
       <c r="S51">
-        <v>272.01666666666603</v>
+        <v>275.71666666666601</v>
       </c>
       <c r="T51">
-        <v>275.58333333333297</v>
+        <v>277.21666666666601</v>
       </c>
       <c r="V51">
-        <v>268.76666666666603</v>
+        <v>273.76666666666603</v>
       </c>
       <c r="W51">
-        <v>271.89999999999998</v>
+        <v>274.3</v>
       </c>
       <c r="Y51">
-        <v>271.36666666666599</v>
+        <v>273.666666666666</v>
       </c>
       <c r="Z51">
-        <v>275.56666666666598</v>
+        <v>272.73333333333301</v>
       </c>
       <c r="AB51">
-        <v>277.25</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="AC51">
-        <v>269.683333333333</v>
+        <v>278.60000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52">
-        <v>272.96666666666601</v>
+        <v>272.78333333333302</v>
       </c>
       <c r="B52">
-        <v>268.76666666666603</v>
+        <v>270.21666666666601</v>
       </c>
       <c r="D52">
         <v>271.933333333333</v>
       </c>
       <c r="E52">
-        <v>268.8</v>
+        <v>268.666666666666</v>
       </c>
       <c r="G52">
-        <v>272.89999999999998</v>
+        <v>273.39999999999998</v>
       </c>
       <c r="H52">
-        <v>272.56666666666598</v>
+        <v>267.2</v>
       </c>
       <c r="J52">
-        <v>271.26666666666603</v>
+        <v>271.86666666666599</v>
       </c>
       <c r="K52">
-        <v>275.86666666666599</v>
+        <v>271.53333333333302</v>
       </c>
       <c r="M52">
-        <v>270.23333333333301</v>
+        <v>272.85000000000002</v>
       </c>
       <c r="N52">
-        <v>275.83333333333297</v>
+        <v>270.28333333333302</v>
       </c>
       <c r="P52">
-        <v>273.25</v>
+        <v>272.683333333333</v>
       </c>
       <c r="Q52">
-        <v>273.21666666666601</v>
+        <v>275.05</v>
       </c>
       <c r="S52">
-        <v>269.916666666666</v>
+        <v>273.78333333333302</v>
       </c>
       <c r="T52">
-        <v>274.416666666666</v>
+        <v>274.95</v>
       </c>
       <c r="V52">
-        <v>266.433333333333</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="W52">
-        <v>270.36666666666599</v>
+        <v>273.61666666666599</v>
       </c>
       <c r="Y52">
-        <v>269.7</v>
+        <v>273.13333333333298</v>
       </c>
       <c r="Z52">
-        <v>274.56666666666598</v>
+        <v>271.39999999999998</v>
       </c>
       <c r="AB52">
-        <v>277.81666666666598</v>
+        <v>269.933333333333</v>
       </c>
       <c r="AC52">
-        <v>266.916666666666</v>
+        <v>275.933333333333</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53">
-        <v>271.2</v>
+        <v>270.95</v>
       </c>
       <c r="B53">
-        <v>267.26666666666603</v>
+        <v>268.71666666666601</v>
       </c>
       <c r="D53">
-        <v>269.60000000000002</v>
+        <v>269.933333333333</v>
       </c>
       <c r="E53">
-        <v>269</v>
+        <v>268.2</v>
       </c>
       <c r="G53">
-        <v>270.88333333333298</v>
+        <v>271.26666666666603</v>
       </c>
       <c r="H53">
-        <v>270.31666666666598</v>
+        <v>266.2</v>
       </c>
       <c r="J53">
-        <v>270.01666666666603</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="K53">
-        <v>273.78333333333302</v>
+        <v>269.433333333333</v>
       </c>
       <c r="M53">
-        <v>268.06666666666598</v>
+        <v>271.95</v>
       </c>
       <c r="N53">
-        <v>274.26666666666603</v>
+        <v>267.85000000000002</v>
       </c>
       <c r="P53">
-        <v>271.85000000000002</v>
+        <v>270.166666666666</v>
       </c>
       <c r="Q53">
-        <v>271.21666666666601</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="S53">
-        <v>266.83333333333297</v>
+        <v>271.7</v>
       </c>
       <c r="T53">
-        <v>273.63333333333298</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="V53">
-        <v>265.433333333333</v>
+        <v>269.48333333333301</v>
       </c>
       <c r="W53">
-        <v>269.03333333333302</v>
+        <v>273.11666666666599</v>
       </c>
       <c r="Y53">
-        <v>266.53333333333302</v>
+        <v>272.08333333333297</v>
       </c>
       <c r="Z53">
-        <v>273.39999999999998</v>
+        <v>269.51666666666603</v>
       </c>
       <c r="AB53">
-        <v>276.98333333333301</v>
+        <v>268.61666666666599</v>
       </c>
       <c r="AC53">
-        <v>264.416666666666</v>
+        <v>273.916666666666</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54">
-        <v>269.03333333333302</v>
+        <v>269.51666666666603</v>
       </c>
       <c r="B54">
-        <v>265.433333333333</v>
+        <v>266.55</v>
       </c>
       <c r="D54">
-        <v>267.51666666666603</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="E54">
-        <v>266.75</v>
+        <v>267.2</v>
       </c>
       <c r="G54">
-        <v>268.416666666666</v>
+        <v>269.416666666666</v>
       </c>
       <c r="H54">
-        <v>268.25</v>
+        <v>265.11666666666599</v>
       </c>
       <c r="J54">
-        <v>267.26666666666603</v>
+        <v>268.51666666666603</v>
       </c>
       <c r="K54">
-        <v>272.60000000000002</v>
+        <v>267.01666666666603</v>
       </c>
       <c r="M54">
+        <v>271.53333333333302</v>
+      </c>
+      <c r="N54">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="P54">
+        <v>267.58333333333297</v>
+      </c>
+      <c r="Q54">
+        <v>271.01666666666603</v>
+      </c>
+      <c r="S54">
+        <v>269.666666666666</v>
+      </c>
+      <c r="T54">
+        <v>270.33333333333297</v>
+      </c>
+      <c r="V54">
+        <v>266.46666666666601</v>
+      </c>
+      <c r="W54">
+        <v>271.53333333333302</v>
+      </c>
+      <c r="Y54">
+        <v>270.88333333333298</v>
+      </c>
+      <c r="Z54">
         <v>267.25</v>
       </c>
-      <c r="N54">
-        <v>272.01666666666603</v>
-      </c>
-      <c r="P54">
-        <v>269.5</v>
-      </c>
-      <c r="Q54">
-        <v>269.36666666666599</v>
-      </c>
-      <c r="S54">
-        <v>264.666666666666</v>
-      </c>
-      <c r="T54">
-        <v>272.26666666666603</v>
-      </c>
-      <c r="V54">
-        <v>264.14999999999998</v>
-      </c>
-      <c r="W54">
-        <v>267.31666666666598</v>
-      </c>
-      <c r="Y54">
-        <v>264.36666666666599</v>
-      </c>
-      <c r="Z54">
-        <v>271.76666666666603</v>
-      </c>
       <c r="AB54">
-        <v>276.51666666666603</v>
+        <v>266.96666666666601</v>
       </c>
       <c r="AC54">
-        <v>261.08333333333297</v>
+        <v>271.166666666666</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55">
-        <v>267.28333333333302</v>
+        <v>267.35000000000002</v>
       </c>
       <c r="B55">
-        <v>262.51666666666603</v>
+        <v>264.71666666666601</v>
       </c>
       <c r="D55">
-        <v>265.35000000000002</v>
+        <v>265.51666666666603</v>
       </c>
       <c r="E55">
-        <v>265.45</v>
+        <v>264.95</v>
       </c>
       <c r="G55">
-        <v>266.33333333333297</v>
+        <v>267.75</v>
       </c>
       <c r="H55">
-        <v>265.666666666666</v>
+        <v>264.183333333333</v>
       </c>
       <c r="J55">
-        <v>264.933333333333</v>
+        <v>266.73333333333301</v>
       </c>
       <c r="K55">
-        <v>270</v>
+        <v>265.33333333333297</v>
       </c>
       <c r="M55">
+        <v>270.56666666666598</v>
+      </c>
+      <c r="N55">
+        <v>262.83333333333297</v>
+      </c>
+      <c r="P55">
         <v>264.916666666666</v>
       </c>
-      <c r="N55">
-        <v>269.75</v>
-      </c>
-      <c r="P55">
-        <v>266.83333333333297</v>
-      </c>
       <c r="Q55">
-        <v>268.166666666666</v>
+        <v>268.683333333333</v>
       </c>
       <c r="S55">
-        <v>261.916666666666</v>
+        <v>267.25</v>
       </c>
       <c r="T55">
-        <v>270.48333333333301</v>
+        <v>267.75</v>
       </c>
       <c r="V55">
-        <v>261.98333333333301</v>
+        <v>264.13333333333298</v>
       </c>
       <c r="W55">
-        <v>265.81666666666598</v>
+        <v>268.86666666666599</v>
       </c>
       <c r="Y55">
-        <v>262.36666666666599</v>
+        <v>268.45</v>
       </c>
       <c r="Z55">
-        <v>270.03333333333302</v>
+        <v>264.75</v>
       </c>
       <c r="AB55">
-        <v>275.36666666666599</v>
+        <v>264.3</v>
       </c>
       <c r="AC55">
-        <v>258.5</v>
+        <v>268.83333333333297</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56">
-        <v>266.53333333333302</v>
+        <v>265.63333333333298</v>
       </c>
       <c r="B56">
-        <v>260.60000000000002</v>
+        <v>263.166666666666</v>
       </c>
       <c r="D56">
-        <v>263.01666666666603</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="E56">
-        <v>263.58333333333297</v>
+        <v>263.56666666666598</v>
       </c>
       <c r="G56">
-        <v>264.166666666666</v>
+        <v>265.83333333333297</v>
       </c>
       <c r="H56">
-        <v>263.5</v>
+        <v>262.433333333333</v>
       </c>
       <c r="J56">
+        <v>265.06666666666598</v>
+      </c>
+      <c r="K56">
+        <v>263</v>
+      </c>
+      <c r="M56">
+        <v>268.85000000000002</v>
+      </c>
+      <c r="N56">
+        <v>260.08333333333297</v>
+      </c>
+      <c r="P56">
+        <v>262.83333333333297</v>
+      </c>
+      <c r="Q56">
+        <v>266.433333333333</v>
+      </c>
+      <c r="S56">
+        <v>264.75</v>
+      </c>
+      <c r="T56">
+        <v>265.25</v>
+      </c>
+      <c r="V56">
         <v>262.25</v>
       </c>
-      <c r="K56">
-        <v>267.75</v>
-      </c>
-      <c r="M56">
-        <v>263.5</v>
-      </c>
-      <c r="N56">
-        <v>266.5</v>
-      </c>
-      <c r="P56">
-        <v>264.25</v>
-      </c>
-      <c r="Q56">
-        <v>265.75</v>
-      </c>
-      <c r="S56">
-        <v>258.83333333333297</v>
-      </c>
-      <c r="T56">
-        <v>268.96666666666601</v>
-      </c>
-      <c r="V56">
-        <v>259.39999999999998</v>
-      </c>
       <c r="W56">
-        <v>264.06666666666598</v>
+        <v>266.61666666666599</v>
       </c>
       <c r="Y56">
-        <v>260.36666666666599</v>
+        <v>266.38333333333298</v>
       </c>
       <c r="Z56">
-        <v>267.76666666666603</v>
+        <v>262.416666666666</v>
       </c>
       <c r="AB56">
-        <v>272.78333333333302</v>
+        <v>262.3</v>
       </c>
       <c r="AC56">
-        <v>256.08333333333297</v>
+        <v>266.166666666666</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57">
-        <v>264.14999999999998</v>
+        <v>263.55</v>
       </c>
       <c r="B57">
-        <v>258.51666666666603</v>
+        <v>260.58333333333297</v>
       </c>
       <c r="D57">
-        <v>261.60000000000002</v>
+        <v>260.916666666666</v>
       </c>
       <c r="E57">
-        <v>262</v>
+        <v>261.48333333333301</v>
       </c>
       <c r="G57">
-        <v>262.05</v>
+        <v>263.33333333333297</v>
       </c>
       <c r="H57">
-        <v>261.75</v>
+        <v>260.26666666666603</v>
       </c>
       <c r="J57">
-        <v>259.416666666666</v>
+        <v>262.23333333333301</v>
       </c>
       <c r="K57">
-        <v>265.58333333333297</v>
+        <v>260.83333333333297</v>
       </c>
       <c r="M57">
-        <v>260.75</v>
+        <v>266.666666666666</v>
       </c>
       <c r="N57">
-        <v>264.25</v>
+        <v>257.33333333333297</v>
       </c>
       <c r="P57">
-        <v>261.916666666666</v>
+        <v>260.166666666666</v>
       </c>
       <c r="Q57">
-        <v>263.08333333333297</v>
+        <v>264.3</v>
       </c>
       <c r="S57">
-        <v>256.25</v>
+        <v>261.5</v>
       </c>
       <c r="T57">
-        <v>266.683333333333</v>
+        <v>263.5</v>
       </c>
       <c r="V57">
-        <v>257.48333333333301</v>
+        <v>259.5</v>
       </c>
       <c r="W57">
-        <v>262.64999999999998</v>
+        <v>264.36666666666599</v>
       </c>
       <c r="Y57">
-        <v>257.78333333333302</v>
+        <v>264.88333333333298</v>
       </c>
       <c r="Z57">
-        <v>265.683333333333</v>
+        <v>259.58333333333297</v>
       </c>
       <c r="AB57">
-        <v>270.86666666666599</v>
+        <v>259.88333333333298</v>
       </c>
       <c r="AC57">
-        <v>253.666666666666</v>
+        <v>263.58333333333297</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58">
-        <v>262.33333333333297</v>
+        <v>260.96666666666601</v>
       </c>
       <c r="B58">
-        <v>256.26666666666603</v>
+        <v>258.5</v>
       </c>
       <c r="D58">
-        <v>259.683333333333</v>
+        <v>258.666666666666</v>
       </c>
       <c r="E58">
-        <v>259.25</v>
+        <v>260.13333333333298</v>
       </c>
       <c r="G58">
-        <v>259.96666666666601</v>
+        <v>261.166666666666</v>
       </c>
       <c r="H58">
-        <v>258.83333333333297</v>
+        <v>258.76666666666603</v>
       </c>
       <c r="J58">
-        <v>257.25</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="K58">
-        <v>262.75</v>
+        <v>258.666666666666</v>
       </c>
       <c r="M58">
-        <v>258.75</v>
+        <v>264.75</v>
       </c>
       <c r="N58">
-        <v>261.25</v>
+        <v>254.583333333333</v>
       </c>
       <c r="P58">
-        <v>259.83333333333297</v>
+        <v>257.416666666666</v>
       </c>
       <c r="Q58">
-        <v>260.166666666666</v>
+        <v>262.05</v>
       </c>
       <c r="S58">
-        <v>253.833333333333</v>
+        <v>259</v>
       </c>
       <c r="T58">
-        <v>265.10000000000002</v>
+        <v>261</v>
       </c>
       <c r="V58">
-        <v>254.65</v>
+        <v>257.416666666666</v>
       </c>
       <c r="W58">
-        <v>261.01666666666603</v>
+        <v>261.78333333333302</v>
       </c>
       <c r="Y58">
-        <v>255.36666666666599</v>
+        <v>263.166666666666</v>
       </c>
       <c r="Z58">
-        <v>263.5</v>
+        <v>256.83333333333297</v>
       </c>
       <c r="AB58">
-        <v>268.53333333333302</v>
+        <v>257.8</v>
       </c>
       <c r="AC58">
-        <v>251.333333333333</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59">
-        <v>259.33333333333297</v>
+        <v>258.55</v>
       </c>
       <c r="B59">
-        <v>254.933333333333</v>
+        <v>256.25</v>
       </c>
       <c r="D59">
-        <v>257.13333333333298</v>
+        <v>256.166666666666</v>
       </c>
       <c r="E59">
-        <v>257.666666666666</v>
+        <v>257.63333333333298</v>
       </c>
       <c r="G59">
-        <v>257.96666666666601</v>
+        <v>258.75</v>
       </c>
       <c r="H59">
-        <v>256.5</v>
+        <v>256.183333333333</v>
       </c>
       <c r="J59">
-        <v>254.583333333333</v>
+        <v>256.98333333333301</v>
       </c>
       <c r="K59">
-        <v>260.416666666666</v>
+        <v>256.416666666666</v>
       </c>
       <c r="M59">
-        <v>256.5</v>
+        <v>262.666666666666</v>
       </c>
       <c r="N59">
-        <v>258.5</v>
+        <v>252.333333333333</v>
       </c>
       <c r="P59">
-        <v>257.25</v>
+        <v>254.666666666666</v>
       </c>
       <c r="Q59">
-        <v>257.75</v>
+        <v>259.8</v>
       </c>
       <c r="S59">
-        <v>251.083333333333</v>
+        <v>256.666666666666</v>
       </c>
       <c r="T59">
-        <v>262.85000000000002</v>
+        <v>258.33333333333297</v>
       </c>
       <c r="V59">
-        <v>251.48333333333301</v>
+        <v>255</v>
       </c>
       <c r="W59">
-        <v>259.51666666666603</v>
+        <v>259.2</v>
       </c>
       <c r="Y59">
-        <v>252.7</v>
+        <v>260.08333333333297</v>
       </c>
       <c r="Z59">
-        <v>261.5</v>
+        <v>254.916666666666</v>
       </c>
       <c r="AB59">
-        <v>266.75</v>
+        <v>255.38333333333301</v>
       </c>
       <c r="AC59">
-        <v>248.25</v>
+        <v>258.416666666666</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60">
-        <v>256.5</v>
+        <v>256.75</v>
       </c>
       <c r="B60">
-        <v>253.36666666666599</v>
+        <v>253.25</v>
       </c>
       <c r="D60">
-        <v>255.083333333333</v>
+        <v>253.583333333333</v>
       </c>
       <c r="E60">
-        <v>254.916666666666</v>
+        <v>255.55</v>
       </c>
       <c r="G60">
         <v>256.08333333333297</v>
       </c>
       <c r="H60">
-        <v>253.916666666666</v>
+        <v>253.85</v>
       </c>
       <c r="J60">
-        <v>252.416666666666</v>
+        <v>254.98333333333301</v>
       </c>
       <c r="K60">
-        <v>257.58333333333297</v>
+        <v>254.083333333333</v>
       </c>
       <c r="M60">
+        <v>259.916666666666</v>
+      </c>
+      <c r="N60">
+        <v>250.083333333333</v>
+      </c>
+      <c r="P60">
+        <v>251.75</v>
+      </c>
+      <c r="Q60">
+        <v>258.05</v>
+      </c>
+      <c r="S60">
         <v>254.25</v>
       </c>
-      <c r="N60">
+      <c r="T60">
         <v>255.75</v>
       </c>
-      <c r="P60">
-        <v>254.833333333333</v>
-      </c>
-      <c r="Q60">
-        <v>255.166666666666</v>
-      </c>
-      <c r="S60">
-        <v>249</v>
-      </c>
-      <c r="T60">
-        <v>260.26666666666603</v>
-      </c>
       <c r="V60">
-        <v>248.9</v>
+        <v>252.75</v>
       </c>
       <c r="W60">
-        <v>258.433333333333</v>
+        <v>256.78333333333302</v>
       </c>
       <c r="Y60">
-        <v>250.53333333333299</v>
+        <v>258.08333333333297</v>
       </c>
       <c r="Z60">
-        <v>258.666666666666</v>
+        <v>251.916666666666</v>
       </c>
       <c r="AB60">
-        <v>264.08333333333297</v>
+        <v>253.13333333333301</v>
       </c>
       <c r="AC60">
-        <v>245.916666666666</v>
+        <v>255.666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -4213,75 +4235,75 @@
         <v>253.916666666666</v>
       </c>
       <c r="B61">
-        <v>250.95</v>
+        <v>251.083333333333</v>
       </c>
       <c r="D61">
-        <v>251.916666666666</v>
+        <v>251.333333333333</v>
       </c>
       <c r="E61">
-        <v>253.083333333333</v>
+        <v>253.46666666666599</v>
       </c>
       <c r="G61">
-        <v>253.166666666666</v>
+        <v>253.333333333333</v>
       </c>
       <c r="H61">
-        <v>251.833333333333</v>
+        <v>251.666666666666</v>
       </c>
       <c r="J61">
-        <v>249.666666666666</v>
+        <v>253.4</v>
       </c>
       <c r="K61">
-        <v>255.333333333333</v>
+        <v>251</v>
       </c>
       <c r="M61">
-        <v>251.583333333333</v>
+        <v>258.416666666666</v>
       </c>
       <c r="N61">
+        <v>246.583333333333</v>
+      </c>
+      <c r="P61">
+        <v>249.333333333333</v>
+      </c>
+      <c r="Q61">
+        <v>255.666666666666</v>
+      </c>
+      <c r="S61">
+        <v>251.333333333333</v>
+      </c>
+      <c r="T61">
+        <v>253.666666666666</v>
+      </c>
+      <c r="V61">
+        <v>250.5</v>
+      </c>
+      <c r="W61">
+        <v>254.5</v>
+      </c>
+      <c r="Y61">
+        <v>255.916666666666</v>
+      </c>
+      <c r="Z61">
+        <v>249.083333333333</v>
+      </c>
+      <c r="AB61">
+        <v>250.71666666666599</v>
+      </c>
+      <c r="AC61">
         <v>253.416666666666</v>
-      </c>
-      <c r="P61">
-        <v>252.333333333333</v>
-      </c>
-      <c r="Q61">
-        <v>252.666666666666</v>
-      </c>
-      <c r="S61">
-        <v>246.333333333333</v>
-      </c>
-      <c r="T61">
-        <v>257.933333333333</v>
-      </c>
-      <c r="V61">
-        <v>247.083333333333</v>
-      </c>
-      <c r="W61">
-        <v>255.85</v>
-      </c>
-      <c r="Y61">
-        <v>248.666666666666</v>
-      </c>
-      <c r="Z61">
-        <v>256.33333333333297</v>
-      </c>
-      <c r="AB61">
-        <v>261.83333333333297</v>
-      </c>
-      <c r="AC61">
-        <v>243.166666666666</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62">
-        <v>251.666666666666</v>
+        <v>251.916666666666</v>
       </c>
       <c r="B62">
-        <v>248.2</v>
+        <v>248.083333333333</v>
       </c>
       <c r="D62">
-        <v>249.25</v>
+        <v>249.666666666666</v>
       </c>
       <c r="E62">
-        <v>250.75</v>
+        <v>250.13333333333301</v>
       </c>
       <c r="G62">
         <v>250.583333333333</v>
@@ -4290,46 +4312,46 @@
         <v>249.416666666666</v>
       </c>
       <c r="J62">
-        <v>247.083333333333</v>
+        <v>251.15</v>
       </c>
       <c r="K62">
-        <v>252.916666666666</v>
+        <v>248.25</v>
       </c>
       <c r="M62">
-        <v>249.166666666666</v>
+        <v>256.08333333333297</v>
       </c>
       <c r="N62">
-        <v>250.833333333333</v>
+        <v>243.916666666666</v>
       </c>
       <c r="P62">
-        <v>249.583333333333</v>
+        <v>247.416666666666</v>
       </c>
       <c r="Q62">
-        <v>250.416666666666</v>
+        <v>252.583333333333</v>
       </c>
       <c r="S62">
-        <v>243.916666666666</v>
+        <v>249</v>
       </c>
       <c r="T62">
-        <v>256.01666666666603</v>
+        <v>251</v>
       </c>
       <c r="V62">
-        <v>244.833333333333</v>
+        <v>248.083333333333</v>
       </c>
       <c r="W62">
-        <v>254.433333333333</v>
+        <v>251.916666666666</v>
       </c>
       <c r="Y62">
-        <v>246.833333333333</v>
+        <v>253.416666666666</v>
       </c>
       <c r="Z62">
-        <v>253.166666666666</v>
+        <v>246.583333333333</v>
       </c>
       <c r="AB62">
-        <v>258.666666666666</v>
+        <v>247.8</v>
       </c>
       <c r="AC62">
-        <v>241.333333333333</v>
+        <v>251.333333333333</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -4340,190 +4362,190 @@
         <v>245.916666666666</v>
       </c>
       <c r="D63">
+        <v>246.833333333333</v>
+      </c>
+      <c r="E63">
+        <v>247.96666666666599</v>
+      </c>
+      <c r="G63">
+        <v>247.75</v>
+      </c>
+      <c r="H63">
+        <v>247.25</v>
+      </c>
+      <c r="J63">
+        <v>248.81666666666601</v>
+      </c>
+      <c r="K63">
+        <v>245.916666666666</v>
+      </c>
+      <c r="M63">
+        <v>253.833333333333</v>
+      </c>
+      <c r="N63">
+        <v>241.166666666666</v>
+      </c>
+      <c r="P63">
+        <v>244.833333333333</v>
+      </c>
+      <c r="Q63">
+        <v>250.166666666666</v>
+      </c>
+      <c r="S63">
         <v>246.583333333333</v>
       </c>
-      <c r="E63">
+      <c r="T63">
         <v>248.416666666666</v>
       </c>
-      <c r="G63">
-        <v>248.25</v>
-      </c>
-      <c r="H63">
-        <v>246.75</v>
-      </c>
-      <c r="J63">
-        <v>244.833333333333</v>
-      </c>
-      <c r="K63">
-        <v>250.166666666666</v>
-      </c>
-      <c r="M63">
-        <v>245.75</v>
-      </c>
-      <c r="N63">
-        <v>249.25</v>
-      </c>
-      <c r="P63">
-        <v>247.666666666666</v>
-      </c>
-      <c r="Q63">
-        <v>247.333333333333</v>
-      </c>
-      <c r="S63">
-        <v>241.583333333333</v>
-      </c>
-      <c r="T63">
-        <v>253.416666666666</v>
-      </c>
       <c r="V63">
-        <v>242.416666666666</v>
+        <v>245.666666666666</v>
       </c>
       <c r="W63">
-        <v>252.183333333333</v>
+        <v>249.333333333333</v>
       </c>
       <c r="Y63">
-        <v>244.5</v>
+        <v>250.666666666666</v>
       </c>
       <c r="Z63">
-        <v>250.5</v>
+        <v>244.333333333333</v>
       </c>
       <c r="AB63">
-        <v>256.25</v>
+        <v>245.8</v>
       </c>
       <c r="AC63">
-        <v>238.75</v>
+        <v>248.333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64">
-        <v>246.583333333333</v>
+        <v>246.166666666666</v>
       </c>
       <c r="B64">
-        <v>243.416666666666</v>
+        <v>243.833333333333</v>
       </c>
       <c r="D64">
-        <v>244.166666666666</v>
+        <v>244.416666666666</v>
       </c>
       <c r="E64">
-        <v>245.833333333333</v>
+        <v>245.583333333333</v>
       </c>
       <c r="G64">
-        <v>245.75</v>
+        <v>245.583333333333</v>
       </c>
       <c r="H64">
-        <v>244.25</v>
+        <v>244.416666666666</v>
       </c>
       <c r="J64">
+        <v>246.333333333333</v>
+      </c>
+      <c r="K64">
+        <v>243.666666666666</v>
+      </c>
+      <c r="M64">
+        <v>252</v>
+      </c>
+      <c r="N64">
+        <v>238</v>
+      </c>
+      <c r="P64">
         <v>242.166666666666</v>
       </c>
-      <c r="K64">
+      <c r="Q64">
         <v>247.833333333333</v>
       </c>
-      <c r="M64">
-        <v>243.5</v>
-      </c>
-      <c r="N64">
-        <v>246.5</v>
-      </c>
-      <c r="P64">
-        <v>245</v>
-      </c>
-      <c r="Q64">
-        <v>245</v>
-      </c>
       <c r="S64">
-        <v>238.916666666666</v>
+        <v>243.75</v>
       </c>
       <c r="T64">
-        <v>251.083333333333</v>
+        <v>246.25</v>
       </c>
       <c r="V64">
-        <v>239.5</v>
+        <v>242.833333333333</v>
       </c>
       <c r="W64">
-        <v>250.36666666666599</v>
+        <v>247.166666666666</v>
       </c>
       <c r="Y64">
-        <v>242</v>
+        <v>248.333333333333</v>
       </c>
       <c r="Z64">
-        <v>248</v>
+        <v>241.666666666666</v>
       </c>
       <c r="AB64">
-        <v>253.75</v>
+        <v>243.38333333333301</v>
       </c>
       <c r="AC64">
-        <v>236.25</v>
+        <v>246.083333333333</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65">
-        <v>244.333333333333</v>
+        <v>243.916666666666</v>
       </c>
       <c r="B65">
-        <v>240.666666666666</v>
+        <v>241.083333333333</v>
       </c>
       <c r="D65">
-        <v>241.583333333333</v>
+        <v>242.583333333333</v>
       </c>
       <c r="E65">
-        <v>243.416666666666</v>
+        <v>242.416666666666</v>
       </c>
       <c r="G65">
-        <v>243.583333333333</v>
+        <v>243</v>
       </c>
       <c r="H65">
-        <v>241.416666666666</v>
+        <v>242</v>
       </c>
       <c r="J65">
-        <v>240</v>
+        <v>243.75</v>
       </c>
       <c r="K65">
-        <v>245</v>
+        <v>241.25</v>
       </c>
       <c r="M65">
-        <v>240.916666666666</v>
+        <v>249.166666666666</v>
       </c>
       <c r="N65">
-        <v>244.083333333333</v>
+        <v>235.833333333333</v>
       </c>
       <c r="P65">
-        <v>242.666666666666</v>
+        <v>239.666666666666</v>
       </c>
       <c r="Q65">
-        <v>242.333333333333</v>
+        <v>245.333333333333</v>
       </c>
       <c r="S65">
-        <v>236.583333333333</v>
+        <v>241.333333333333</v>
       </c>
       <c r="T65">
-        <v>248.416666666666</v>
+        <v>243.666666666666</v>
       </c>
       <c r="V65">
-        <v>236.916666666666</v>
+        <v>239.916666666666</v>
       </c>
       <c r="W65">
-        <v>248.083333333333</v>
+        <v>245.083333333333</v>
       </c>
       <c r="Y65">
-        <v>239.75</v>
+        <v>246.5</v>
       </c>
       <c r="Z65">
-        <v>245.25</v>
+        <v>238.5</v>
       </c>
       <c r="AB65">
-        <v>251.25</v>
+        <v>241.75</v>
       </c>
       <c r="AC65">
-        <v>233.75</v>
+        <v>243.25</v>
       </c>
     </row>
     <row r="66" spans="1:29">
       <c r="A66">
-        <v>241.583333333333</v>
+        <v>241.083333333333</v>
       </c>
       <c r="B66">
-        <v>238.416666666666</v>
+        <v>238.916666666666</v>
       </c>
       <c r="D66">
         <v>239.333333333333</v>
@@ -4532,128 +4554,128 @@
         <v>240.666666666666</v>
       </c>
       <c r="G66">
-        <v>240.916666666666</v>
+        <v>240.416666666666</v>
       </c>
       <c r="H66">
-        <v>239.083333333333</v>
+        <v>239.583333333333</v>
       </c>
       <c r="J66">
-        <v>237.666666666666</v>
+        <v>241.416666666666</v>
       </c>
       <c r="K66">
-        <v>242.333333333333</v>
+        <v>238.583333333333</v>
       </c>
       <c r="M66">
-        <v>238.083333333333</v>
+        <v>246.583333333333</v>
       </c>
       <c r="N66">
-        <v>241.916666666666</v>
+        <v>233.416666666666</v>
       </c>
       <c r="P66">
+        <v>237.083333333333</v>
+      </c>
+      <c r="Q66">
+        <v>242.916666666666</v>
+      </c>
+      <c r="S66">
+        <v>239.583333333333</v>
+      </c>
+      <c r="T66">
         <v>240.416666666666</v>
       </c>
-      <c r="Q66">
-        <v>239.583333333333</v>
-      </c>
-      <c r="S66">
-        <v>234.416666666666</v>
-      </c>
-      <c r="T66">
-        <v>245.583333333333</v>
-      </c>
       <c r="V66">
-        <v>234.333333333333</v>
+        <v>237.583333333333</v>
       </c>
       <c r="W66">
-        <v>245.666666666666</v>
+        <v>242.416666666666</v>
       </c>
       <c r="Y66">
-        <v>236.416666666666</v>
+        <v>244.083333333333</v>
       </c>
       <c r="Z66">
-        <v>243.583333333333</v>
+        <v>235.916666666666</v>
       </c>
       <c r="AB66">
-        <v>248.916666666666</v>
+        <v>239.25</v>
       </c>
       <c r="AC66">
-        <v>231.083333333333</v>
+        <v>240.75</v>
       </c>
     </row>
     <row r="67" spans="1:29">
       <c r="A67">
-        <v>238.916666666666</v>
+        <v>238.25</v>
       </c>
       <c r="B67">
-        <v>236.083333333333</v>
+        <v>236.75</v>
       </c>
       <c r="D67">
-        <v>236.583333333333</v>
+        <v>236.833333333333</v>
       </c>
       <c r="E67">
-        <v>238.416666666666</v>
+        <v>238.166666666666</v>
       </c>
       <c r="G67">
-        <v>238.416666666666</v>
+        <v>238.333333333333</v>
       </c>
       <c r="H67">
-        <v>236.583333333333</v>
+        <v>236.666666666666</v>
       </c>
       <c r="J67">
-        <v>234.833333333333</v>
+        <v>239.333333333333</v>
       </c>
       <c r="K67">
-        <v>240.166666666666</v>
+        <v>235.666666666666</v>
       </c>
       <c r="M67">
-        <v>235.583333333333</v>
+        <v>243.75</v>
       </c>
       <c r="N67">
-        <v>239.416666666666</v>
+        <v>231.25</v>
       </c>
       <c r="P67">
-        <v>237.666666666666</v>
+        <v>234.25</v>
       </c>
       <c r="Q67">
-        <v>237.333333333333</v>
+        <v>240.75</v>
       </c>
       <c r="S67">
-        <v>232.25</v>
+        <v>237.083333333333</v>
       </c>
       <c r="T67">
-        <v>242.75</v>
+        <v>237.916666666666</v>
       </c>
       <c r="V67">
-        <v>231.416666666666</v>
+        <v>235.333333333333</v>
       </c>
       <c r="W67">
-        <v>243.583333333333</v>
+        <v>239.666666666666</v>
       </c>
       <c r="Y67">
-        <v>233.75</v>
+        <v>241.833333333333</v>
       </c>
       <c r="Z67">
-        <v>241.25</v>
+        <v>233.166666666666</v>
       </c>
       <c r="AB67">
-        <v>246.833333333333</v>
+        <v>237.083333333333</v>
       </c>
       <c r="AC67">
-        <v>228.166666666666</v>
+        <v>237.916666666666</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68">
-        <v>236.25</v>
+        <v>235.416666666666</v>
       </c>
       <c r="B68">
-        <v>233.75</v>
+        <v>234.583333333333</v>
       </c>
       <c r="D68">
-        <v>234.916666666666</v>
+        <v>234.583333333333</v>
       </c>
       <c r="E68">
-        <v>235.083333333333</v>
+        <v>235.416666666666</v>
       </c>
       <c r="G68">
         <v>236.166666666666</v>
@@ -4662,542 +4684,542 @@
         <v>233.833333333333</v>
       </c>
       <c r="J68">
-        <v>232.25</v>
+        <v>236.416666666666</v>
       </c>
       <c r="K68">
-        <v>237.75</v>
+        <v>233.583333333333</v>
       </c>
       <c r="M68">
-        <v>232.916666666666</v>
+        <v>241.25</v>
       </c>
       <c r="N68">
-        <v>237.083333333333</v>
+        <v>228.75</v>
       </c>
       <c r="P68">
+        <v>231.916666666666</v>
+      </c>
+      <c r="Q68">
+        <v>238.083333333333</v>
+      </c>
+      <c r="S68">
+        <v>234.25</v>
+      </c>
+      <c r="T68">
         <v>235.75</v>
       </c>
-      <c r="Q68">
-        <v>234.25</v>
-      </c>
-      <c r="S68">
-        <v>229.666666666666</v>
-      </c>
-      <c r="T68">
-        <v>240.333333333333</v>
-      </c>
       <c r="V68">
-        <v>228.916666666666</v>
+        <v>232.75</v>
       </c>
       <c r="W68">
-        <v>241.083333333333</v>
+        <v>237.25</v>
       </c>
       <c r="Y68">
-        <v>231.5</v>
+        <v>239</v>
       </c>
       <c r="Z68">
-        <v>238.5</v>
+        <v>231</v>
       </c>
       <c r="AB68">
-        <v>244.166666666666</v>
+        <v>235</v>
       </c>
       <c r="AC68">
-        <v>225.833333333333</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:29">
       <c r="A69">
-        <v>233.583333333333</v>
+        <v>233</v>
       </c>
       <c r="B69">
-        <v>231.416666666666</v>
+        <v>232</v>
       </c>
       <c r="D69">
-        <v>232.333333333333</v>
+        <v>231.666666666666</v>
       </c>
       <c r="E69">
-        <v>232.666666666666</v>
+        <v>233.333333333333</v>
       </c>
       <c r="G69">
+        <v>234</v>
+      </c>
+      <c r="H69">
+        <v>231</v>
+      </c>
+      <c r="J69">
+        <v>233.75</v>
+      </c>
+      <c r="K69">
+        <v>231.25</v>
+      </c>
+      <c r="M69">
+        <v>239</v>
+      </c>
+      <c r="N69">
+        <v>226</v>
+      </c>
+      <c r="P69">
+        <v>229.25</v>
+      </c>
+      <c r="Q69">
+        <v>235.75</v>
+      </c>
+      <c r="S69">
+        <v>231.166666666666</v>
+      </c>
+      <c r="T69">
         <v>233.833333333333</v>
       </c>
-      <c r="H69">
-        <v>231.166666666666</v>
-      </c>
-      <c r="J69">
-        <v>230.25</v>
-      </c>
-      <c r="K69">
-        <v>234.75</v>
-      </c>
-      <c r="M69">
-        <v>230.666666666666</v>
-      </c>
-      <c r="N69">
-        <v>234.333333333333</v>
-      </c>
-      <c r="P69">
-        <v>233.666666666666</v>
-      </c>
-      <c r="Q69">
-        <v>231.333333333333</v>
-      </c>
-      <c r="S69">
-        <v>226.916666666666</v>
-      </c>
-      <c r="T69">
-        <v>238.083333333333</v>
-      </c>
       <c r="V69">
-        <v>226</v>
+        <v>230.166666666666</v>
       </c>
       <c r="W69">
-        <v>239</v>
+        <v>234.833333333333</v>
       </c>
       <c r="Y69">
-        <v>229.083333333333</v>
+        <v>236.333333333333</v>
       </c>
       <c r="Z69">
-        <v>235.916666666666</v>
+        <v>228.666666666666</v>
       </c>
       <c r="AB69">
-        <v>241.416666666666</v>
+        <v>233.416666666666</v>
       </c>
       <c r="AC69">
-        <v>223.583333333333</v>
+        <v>231.583333333333</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70">
+        <v>231.083333333333</v>
+      </c>
+      <c r="B70">
+        <v>228.916666666666</v>
+      </c>
+      <c r="D70">
+        <v>229.166666666666</v>
+      </c>
+      <c r="E70">
+        <v>230.833333333333</v>
+      </c>
+      <c r="G70">
+        <v>231.5</v>
+      </c>
+      <c r="H70">
+        <v>228.5</v>
+      </c>
+      <c r="J70">
+        <v>231.333333333333</v>
+      </c>
+      <c r="K70">
+        <v>228.666666666666</v>
+      </c>
+      <c r="M70">
+        <v>235.916666666666</v>
+      </c>
+      <c r="N70">
+        <v>224.083333333333</v>
+      </c>
+      <c r="P70">
+        <v>226.75</v>
+      </c>
+      <c r="Q70">
+        <v>233.25</v>
+      </c>
+      <c r="S70">
+        <v>228.833333333333</v>
+      </c>
+      <c r="T70">
+        <v>231.166666666666</v>
+      </c>
+      <c r="V70">
+        <v>227.416666666666</v>
+      </c>
+      <c r="W70">
+        <v>232.583333333333</v>
+      </c>
+      <c r="Y70">
+        <v>234.083333333333</v>
+      </c>
+      <c r="Z70">
+        <v>225.916666666666</v>
+      </c>
+      <c r="AB70">
         <v>231.416666666666</v>
       </c>
-      <c r="B70">
+      <c r="AC70">
         <v>228.583333333333</v>
-      </c>
-      <c r="D70">
-        <v>230</v>
-      </c>
-      <c r="E70">
-        <v>230</v>
-      </c>
-      <c r="G70">
-        <v>231.75</v>
-      </c>
-      <c r="H70">
-        <v>228.25</v>
-      </c>
-      <c r="J70">
-        <v>227.916666666666</v>
-      </c>
-      <c r="K70">
-        <v>232.083333333333</v>
-      </c>
-      <c r="M70">
-        <v>228.166666666666</v>
-      </c>
-      <c r="N70">
-        <v>231.833333333333</v>
-      </c>
-      <c r="P70">
-        <v>231.416666666666</v>
-      </c>
-      <c r="Q70">
-        <v>228.583333333333</v>
-      </c>
-      <c r="S70">
-        <v>224</v>
-      </c>
-      <c r="T70">
-        <v>236</v>
-      </c>
-      <c r="V70">
-        <v>223.333333333333</v>
-      </c>
-      <c r="W70">
-        <v>236.666666666666</v>
-      </c>
-      <c r="Y70">
-        <v>226.666666666666</v>
-      </c>
-      <c r="Z70">
-        <v>233.333333333333</v>
-      </c>
-      <c r="AB70">
-        <v>238.75</v>
-      </c>
-      <c r="AC70">
-        <v>221.25</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71">
-        <v>228</v>
+        <v>228.416666666666</v>
       </c>
       <c r="B71">
-        <v>227</v>
+        <v>226.583333333333</v>
       </c>
       <c r="D71">
-        <v>227.916666666666</v>
+        <v>226.916666666666</v>
       </c>
       <c r="E71">
-        <v>227.083333333333</v>
+        <v>228.083333333333</v>
       </c>
       <c r="G71">
-        <v>229.666666666666</v>
+        <v>229.583333333333</v>
       </c>
       <c r="H71">
-        <v>225.333333333333</v>
+        <v>225.416666666666</v>
       </c>
       <c r="J71">
-        <v>225</v>
+        <v>228.833333333333</v>
       </c>
       <c r="K71">
-        <v>230</v>
+        <v>226.166666666666</v>
       </c>
       <c r="M71">
-        <v>225.666666666666</v>
+        <v>233.333333333333</v>
       </c>
       <c r="N71">
-        <v>229.333333333333</v>
+        <v>221.666666666666</v>
       </c>
       <c r="P71">
-        <v>229.083333333333</v>
+        <v>224.083333333333</v>
       </c>
       <c r="Q71">
-        <v>225.916666666666</v>
+        <v>230.916666666666</v>
       </c>
       <c r="S71">
-        <v>221.916666666666</v>
+        <v>226.166666666666</v>
       </c>
       <c r="T71">
-        <v>233.083333333333</v>
+        <v>228.833333333333</v>
       </c>
       <c r="V71">
-        <v>221.5</v>
+        <v>224.916666666666</v>
       </c>
       <c r="W71">
-        <v>233.5</v>
+        <v>230.083333333333</v>
       </c>
       <c r="Y71">
-        <v>223.916666666666</v>
+        <v>231.666666666666</v>
       </c>
       <c r="Z71">
-        <v>231.083333333333</v>
+        <v>223.333333333333</v>
       </c>
       <c r="AB71">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC71">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72">
-        <v>225.583333333333</v>
+        <v>226.083333333333</v>
       </c>
       <c r="B72">
-        <v>224.416666666666</v>
+        <v>223.916666666666</v>
       </c>
       <c r="D72">
-        <v>224.833333333333</v>
+        <v>224.583333333333</v>
       </c>
       <c r="E72">
-        <v>225.166666666666</v>
+        <v>225.416666666666</v>
       </c>
       <c r="G72">
-        <v>227.166666666666</v>
+        <v>226.75</v>
       </c>
       <c r="H72">
-        <v>222.833333333333</v>
+        <v>223.25</v>
       </c>
       <c r="J72">
+        <v>225.916666666666</v>
+      </c>
+      <c r="K72">
+        <v>224.083333333333</v>
+      </c>
+      <c r="M72">
+        <v>230.666666666666</v>
+      </c>
+      <c r="N72">
+        <v>219.333333333333</v>
+      </c>
+      <c r="P72">
+        <v>221.416666666666</v>
+      </c>
+      <c r="Q72">
+        <v>228.583333333333</v>
+      </c>
+      <c r="S72">
+        <v>223.333333333333</v>
+      </c>
+      <c r="T72">
+        <v>226.666666666666</v>
+      </c>
+      <c r="V72">
         <v>222.583333333333</v>
       </c>
-      <c r="K72">
+      <c r="W72">
         <v>227.416666666666</v>
       </c>
-      <c r="M72">
-        <v>223.25</v>
-      </c>
-      <c r="N72">
-        <v>226.75</v>
-      </c>
-      <c r="P72">
-        <v>226.583333333333</v>
-      </c>
-      <c r="Q72">
-        <v>223.416666666666</v>
-      </c>
-      <c r="S72">
-        <v>219.5</v>
-      </c>
-      <c r="T72">
-        <v>230.5</v>
-      </c>
-      <c r="V72">
-        <v>219.083333333333</v>
-      </c>
-      <c r="W72">
-        <v>230.916666666666</v>
-      </c>
       <c r="Y72">
-        <v>221.416666666666</v>
+        <v>229.416666666666</v>
       </c>
       <c r="Z72">
-        <v>228.583333333333</v>
+        <v>220.583333333333</v>
       </c>
       <c r="AB72">
-        <v>233</v>
+        <v>226.5</v>
       </c>
       <c r="AC72">
-        <v>217</v>
+        <v>223.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73">
+        <v>223.5</v>
+      </c>
+      <c r="B73">
+        <v>221.5</v>
+      </c>
+      <c r="D73">
+        <v>222.166666666666</v>
+      </c>
+      <c r="E73">
+        <v>222.833333333333</v>
+      </c>
+      <c r="G73">
+        <v>224.333333333333</v>
+      </c>
+      <c r="H73">
+        <v>220.666666666666</v>
+      </c>
+      <c r="J73">
+        <v>223.166666666666</v>
+      </c>
+      <c r="K73">
+        <v>221.833333333333</v>
+      </c>
+      <c r="M73">
+        <v>227.833333333333</v>
+      </c>
+      <c r="N73">
+        <v>217.166666666666</v>
+      </c>
+      <c r="P73">
+        <v>218.833333333333</v>
+      </c>
+      <c r="Q73">
+        <v>226.166666666666</v>
+      </c>
+      <c r="S73">
+        <v>220.666666666666</v>
+      </c>
+      <c r="T73">
+        <v>224.333333333333</v>
+      </c>
+      <c r="V73">
+        <v>220.166666666666</v>
+      </c>
+      <c r="W73">
+        <v>224.833333333333</v>
+      </c>
+      <c r="Y73">
+        <v>226.916666666666</v>
+      </c>
+      <c r="Z73">
+        <v>218.083333333333</v>
+      </c>
+      <c r="AB73">
         <v>223.583333333333</v>
       </c>
-      <c r="B73">
+      <c r="AC73">
         <v>221.416666666666</v>
-      </c>
-      <c r="D73">
-        <v>222.583333333333</v>
-      </c>
-      <c r="E73">
-        <v>222.416666666666</v>
-      </c>
-      <c r="G73">
-        <v>224.833333333333</v>
-      </c>
-      <c r="H73">
-        <v>220.166666666666</v>
-      </c>
-      <c r="J73">
-        <v>220.416666666666</v>
-      </c>
-      <c r="K73">
-        <v>224.583333333333</v>
-      </c>
-      <c r="M73">
-        <v>221.166666666666</v>
-      </c>
-      <c r="N73">
-        <v>223.833333333333</v>
-      </c>
-      <c r="P73">
-        <v>223.75</v>
-      </c>
-      <c r="Q73">
-        <v>221.25</v>
-      </c>
-      <c r="S73">
-        <v>217</v>
-      </c>
-      <c r="T73">
-        <v>228</v>
-      </c>
-      <c r="V73">
-        <v>216.5</v>
-      </c>
-      <c r="W73">
-        <v>228.5</v>
-      </c>
-      <c r="Y73">
-        <v>218.833333333333</v>
-      </c>
-      <c r="Z73">
-        <v>226.166666666666</v>
-      </c>
-      <c r="AB73">
-        <v>229.75</v>
-      </c>
-      <c r="AC73">
-        <v>215.25</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74">
-        <v>221.083333333333</v>
+        <v>221.25</v>
       </c>
       <c r="B74">
-        <v>218.916666666666</v>
+        <v>218.75</v>
       </c>
       <c r="D74">
-        <v>220.166666666666</v>
+        <v>220.083333333333</v>
       </c>
       <c r="E74">
-        <v>219.833333333333</v>
+        <v>219.916666666666</v>
       </c>
       <c r="G74">
-        <v>222.333333333333</v>
+        <v>221.583333333333</v>
       </c>
       <c r="H74">
-        <v>217.666666666666</v>
+        <v>218.416666666666</v>
       </c>
       <c r="J74">
-        <v>217.75</v>
+        <v>220.583333333333</v>
       </c>
       <c r="K74">
-        <v>222.25</v>
+        <v>219.416666666666</v>
       </c>
       <c r="M74">
-        <v>218.416666666666</v>
+        <v>224.583333333333</v>
       </c>
       <c r="N74">
-        <v>221.583333333333</v>
+        <v>215.416666666666</v>
       </c>
       <c r="P74">
-        <v>221.166666666666</v>
+        <v>216.25</v>
       </c>
       <c r="Q74">
-        <v>218.833333333333</v>
+        <v>223.75</v>
       </c>
       <c r="S74">
-        <v>214.666666666666</v>
+        <v>218</v>
       </c>
       <c r="T74">
-        <v>225.333333333333</v>
+        <v>222</v>
       </c>
       <c r="V74">
-        <v>214.166666666666</v>
+        <v>217.5</v>
       </c>
       <c r="W74">
-        <v>225.833333333333</v>
+        <v>222.5</v>
       </c>
       <c r="Y74">
-        <v>216.25</v>
+        <v>224.25</v>
       </c>
       <c r="Z74">
-        <v>223.75</v>
+        <v>215.75</v>
       </c>
       <c r="AB74">
-        <v>226.75</v>
+        <v>221.416666666666</v>
       </c>
       <c r="AC74">
-        <v>213.25</v>
+        <v>218.583333333333</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75">
+        <v>218.5</v>
+      </c>
+      <c r="B75">
+        <v>216.5</v>
+      </c>
+      <c r="D75">
+        <v>217.333333333333</v>
+      </c>
+      <c r="E75">
+        <v>217.666666666666</v>
+      </c>
+      <c r="G75">
+        <v>219.333333333333</v>
+      </c>
+      <c r="H75">
+        <v>215.666666666666</v>
+      </c>
+      <c r="J75">
+        <v>217.666666666666</v>
+      </c>
+      <c r="K75">
+        <v>217.333333333333</v>
+      </c>
+      <c r="M75">
+        <v>222</v>
+      </c>
+      <c r="N75">
+        <v>213</v>
+      </c>
+      <c r="P75">
+        <v>214</v>
+      </c>
+      <c r="Q75">
+        <v>221</v>
+      </c>
+      <c r="S75">
+        <v>215.666666666666</v>
+      </c>
+      <c r="T75">
+        <v>219.333333333333</v>
+      </c>
+      <c r="V75">
+        <v>215.083333333333</v>
+      </c>
+      <c r="W75">
+        <v>219.916666666666</v>
+      </c>
+      <c r="Y75">
+        <v>222</v>
+      </c>
+      <c r="Z75">
+        <v>213</v>
+      </c>
+      <c r="AB75">
         <v>218.833333333333</v>
       </c>
-      <c r="B75">
+      <c r="AC75">
         <v>216.166666666666</v>
-      </c>
-      <c r="D75">
-        <v>217.833333333333</v>
-      </c>
-      <c r="E75">
-        <v>217.166666666666</v>
-      </c>
-      <c r="G75">
-        <v>220</v>
-      </c>
-      <c r="H75">
-        <v>215</v>
-      </c>
-      <c r="J75">
-        <v>216</v>
-      </c>
-      <c r="K75">
-        <v>219</v>
-      </c>
-      <c r="M75">
-        <v>215.916666666666</v>
-      </c>
-      <c r="N75">
-        <v>219.083333333333</v>
-      </c>
-      <c r="P75">
-        <v>218</v>
-      </c>
-      <c r="Q75">
-        <v>217</v>
-      </c>
-      <c r="S75">
-        <v>212.166666666666</v>
-      </c>
-      <c r="T75">
-        <v>222.833333333333</v>
-      </c>
-      <c r="V75">
-        <v>211.916666666666</v>
-      </c>
-      <c r="W75">
-        <v>223.083333333333</v>
-      </c>
-      <c r="Y75">
-        <v>213.416666666666</v>
-      </c>
-      <c r="Z75">
-        <v>221.583333333333</v>
-      </c>
-      <c r="AB75">
-        <v>224.333333333333</v>
-      </c>
-      <c r="AC75">
-        <v>210.666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76">
-        <v>215.916666666666</v>
+        <v>215.583333333333</v>
       </c>
       <c r="B76">
-        <v>214.083333333333</v>
+        <v>214.416666666666</v>
       </c>
       <c r="D76">
-        <v>215.833333333333</v>
+        <v>214.916666666666</v>
       </c>
       <c r="E76">
-        <v>214.166666666666</v>
+        <v>215.083333333333</v>
       </c>
       <c r="G76">
-        <v>217.666666666666</v>
+        <v>216.916666666666</v>
       </c>
       <c r="H76">
-        <v>212.333333333333</v>
+        <v>213.083333333333</v>
       </c>
       <c r="J76">
-        <v>213.166666666666</v>
+        <v>214.916666666666</v>
       </c>
       <c r="K76">
-        <v>216.833333333333</v>
+        <v>215.083333333333</v>
       </c>
       <c r="M76">
-        <v>213.75</v>
+        <v>218.833333333333</v>
       </c>
       <c r="N76">
-        <v>216.25</v>
+        <v>211.166666666666</v>
       </c>
       <c r="P76">
-        <v>215.25</v>
+        <v>211.416666666666</v>
       </c>
       <c r="Q76">
-        <v>214.75</v>
+        <v>218.583333333333</v>
       </c>
       <c r="S76">
-        <v>210.25</v>
+        <v>213.416666666666</v>
       </c>
       <c r="T76">
-        <v>219.75</v>
+        <v>216.583333333333</v>
       </c>
       <c r="V76">
-        <v>210.416666666666</v>
+        <v>213</v>
       </c>
       <c r="W76">
-        <v>219.583333333333</v>
+        <v>217</v>
       </c>
       <c r="Y76">
-        <v>210.416666666666</v>
+        <v>219.5</v>
       </c>
       <c r="Z76">
-        <v>219.583333333333</v>
+        <v>210.5</v>
       </c>
       <c r="AB76">
-        <v>221.5</v>
+        <v>216.666666666666</v>
       </c>
       <c r="AC76">
-        <v>208.5</v>
+        <v>213.333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -5214,300 +5236,300 @@
         <v>211.916666666666</v>
       </c>
       <c r="G77">
-        <v>214.416666666666</v>
+        <v>214</v>
       </c>
       <c r="H77">
-        <v>210.583333333333</v>
+        <v>211</v>
       </c>
       <c r="J77">
-        <v>210.833333333333</v>
+        <v>212.583333333333</v>
       </c>
       <c r="K77">
-        <v>214.166666666666</v>
+        <v>212.416666666666</v>
       </c>
       <c r="M77">
+        <v>215.75</v>
+      </c>
+      <c r="N77">
+        <v>209.25</v>
+      </c>
+      <c r="P77">
+        <v>209.083333333333</v>
+      </c>
+      <c r="Q77">
+        <v>215.916666666666</v>
+      </c>
+      <c r="S77">
+        <v>211.166666666666</v>
+      </c>
+      <c r="T77">
+        <v>213.833333333333</v>
+      </c>
+      <c r="V77">
+        <v>211</v>
+      </c>
+      <c r="W77">
+        <v>214</v>
+      </c>
+      <c r="Y77">
+        <v>216.583333333333</v>
+      </c>
+      <c r="Z77">
+        <v>208.416666666666</v>
+      </c>
+      <c r="AB77">
+        <v>213.333333333333</v>
+      </c>
+      <c r="AC77">
         <v>211.666666666666</v>
-      </c>
-      <c r="N77">
-        <v>213.333333333333</v>
-      </c>
-      <c r="P77">
-        <v>212.333333333333</v>
-      </c>
-      <c r="Q77">
-        <v>212.666666666666</v>
-      </c>
-      <c r="S77">
-        <v>208.166666666666</v>
-      </c>
-      <c r="T77">
-        <v>216.833333333333</v>
-      </c>
-      <c r="V77">
-        <v>208.333333333333</v>
-      </c>
-      <c r="W77">
-        <v>216.666666666666</v>
-      </c>
-      <c r="Y77">
-        <v>208.083333333333</v>
-      </c>
-      <c r="Z77">
-        <v>216.916666666666</v>
-      </c>
-      <c r="AB77">
-        <v>218.333333333333</v>
-      </c>
-      <c r="AC77">
-        <v>206.666666666666</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78">
-        <v>210.5</v>
+        <v>210.583333333333</v>
       </c>
       <c r="B78">
-        <v>209.5</v>
+        <v>209.416666666666</v>
       </c>
       <c r="D78">
-        <v>210.333333333333</v>
+        <v>210.083333333333</v>
       </c>
       <c r="E78">
-        <v>209.666666666666</v>
+        <v>209.916666666666</v>
       </c>
       <c r="G78">
-        <v>211.75</v>
+        <v>211.583333333333</v>
       </c>
       <c r="H78">
-        <v>208.25</v>
+        <v>208.416666666666</v>
       </c>
       <c r="J78">
-        <v>208.333333333333</v>
+        <v>210.75</v>
       </c>
       <c r="K78">
-        <v>211.666666666666</v>
+        <v>209.25</v>
       </c>
       <c r="M78">
-        <v>209.5</v>
+        <v>212.833333333333</v>
       </c>
       <c r="N78">
-        <v>210.5</v>
+        <v>207.166666666666</v>
       </c>
       <c r="P78">
-        <v>209.916666666666</v>
+        <v>206.916666666666</v>
       </c>
       <c r="Q78">
-        <v>210.083333333333</v>
+        <v>213.083333333333</v>
       </c>
       <c r="S78">
-        <v>205.75</v>
+        <v>209.25</v>
       </c>
       <c r="T78">
-        <v>214.25</v>
+        <v>210.75</v>
       </c>
       <c r="V78">
-        <v>206.5</v>
+        <v>208.583333333333</v>
       </c>
       <c r="W78">
-        <v>213.5</v>
+        <v>211.416666666666</v>
       </c>
       <c r="Y78">
-        <v>205.416666666666</v>
+        <v>213.333333333333</v>
       </c>
       <c r="Z78">
-        <v>214.583333333333</v>
+        <v>206.666666666666</v>
       </c>
       <c r="AB78">
-        <v>215.416666666666</v>
+        <v>210.416666666666</v>
       </c>
       <c r="AC78">
-        <v>204.583333333333</v>
+        <v>209.583333333333</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79">
-        <v>207.666666666666</v>
+        <v>207.166666666666</v>
       </c>
       <c r="B79">
-        <v>207.333333333333</v>
+        <v>207.833333333333</v>
       </c>
       <c r="D79">
-        <v>207.75</v>
+        <v>207.5</v>
       </c>
       <c r="E79">
-        <v>207.25</v>
+        <v>207.5</v>
       </c>
       <c r="G79">
-        <v>209.25</v>
+        <v>208.666666666666</v>
       </c>
       <c r="H79">
-        <v>205.75</v>
+        <v>206.333333333333</v>
       </c>
       <c r="J79">
-        <v>206.5</v>
+        <v>208.833333333333</v>
       </c>
       <c r="K79">
-        <v>208.5</v>
+        <v>206.166666666666</v>
       </c>
       <c r="M79">
-        <v>206.916666666666</v>
+        <v>209.666666666666</v>
       </c>
       <c r="N79">
-        <v>208.083333333333</v>
+        <v>205.333333333333</v>
       </c>
       <c r="P79">
-        <v>206.916666666666</v>
+        <v>205.083333333333</v>
       </c>
       <c r="Q79">
-        <v>208.083333333333</v>
+        <v>209.916666666666</v>
       </c>
       <c r="S79">
-        <v>203.75</v>
+        <v>206.583333333333</v>
       </c>
       <c r="T79">
-        <v>211.25</v>
+        <v>208.416666666666</v>
       </c>
       <c r="V79">
-        <v>204.5</v>
+        <v>206.333333333333</v>
       </c>
       <c r="W79">
-        <v>210.5</v>
+        <v>208.666666666666</v>
       </c>
       <c r="Y79">
-        <v>203.333333333333</v>
+        <v>209.833333333333</v>
       </c>
       <c r="Z79">
-        <v>211.666666666666</v>
+        <v>205.166666666666</v>
       </c>
       <c r="AB79">
-        <v>212.583333333333</v>
+        <v>207.833333333333</v>
       </c>
       <c r="AC79">
-        <v>202.416666666666</v>
+        <v>207.166666666666</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80">
-        <v>205.166666666666</v>
+        <v>204.166666666666</v>
       </c>
       <c r="B80">
-        <v>204.833333333333</v>
+        <v>205.833333333333</v>
       </c>
       <c r="D80">
-        <v>204.75</v>
+        <v>204.5</v>
       </c>
       <c r="E80">
-        <v>205.25</v>
+        <v>205.5</v>
       </c>
       <c r="G80">
+        <v>205.916666666666</v>
+      </c>
+      <c r="H80">
+        <v>204.083333333333</v>
+      </c>
+      <c r="J80">
+        <v>206.75</v>
+      </c>
+      <c r="K80">
+        <v>203.25</v>
+      </c>
+      <c r="M80">
+        <v>207.083333333333</v>
+      </c>
+      <c r="N80">
+        <v>202.916666666666</v>
+      </c>
+      <c r="P80">
+        <v>203.333333333333</v>
+      </c>
+      <c r="Q80">
+        <v>206.666666666666</v>
+      </c>
+      <c r="S80">
+        <v>204.166666666666</v>
+      </c>
+      <c r="T80">
+        <v>205.833333333333</v>
+      </c>
+      <c r="V80">
+        <v>203.916666666666</v>
+      </c>
+      <c r="W80">
+        <v>206.083333333333</v>
+      </c>
+      <c r="Y80">
         <v>206.916666666666</v>
       </c>
-      <c r="H80">
+      <c r="Z80">
         <v>203.083333333333</v>
       </c>
-      <c r="J80">
-        <v>204.5</v>
-      </c>
-      <c r="K80">
-        <v>205.5</v>
-      </c>
-      <c r="M80">
-        <v>204.416666666666</v>
-      </c>
-      <c r="N80">
-        <v>205.583333333333</v>
-      </c>
-      <c r="P80">
-        <v>203.916666666666</v>
-      </c>
-      <c r="Q80">
-        <v>206.083333333333</v>
-      </c>
-      <c r="S80">
-        <v>202.75</v>
-      </c>
-      <c r="T80">
-        <v>207.25</v>
-      </c>
-      <c r="V80">
-        <v>202.75</v>
-      </c>
-      <c r="W80">
-        <v>207.25</v>
-      </c>
-      <c r="Y80">
-        <v>202.083333333333</v>
-      </c>
-      <c r="Z80">
-        <v>207.916666666666</v>
-      </c>
       <c r="AB80">
-        <v>208.75</v>
+        <v>205.416666666666</v>
       </c>
       <c r="AC80">
-        <v>201.25</v>
+        <v>204.583333333333</v>
       </c>
     </row>
     <row r="81" spans="1:29">
       <c r="A81">
+        <v>201.666666666666</v>
+      </c>
+      <c r="B81">
+        <v>203.333333333333</v>
+      </c>
+      <c r="D81">
+        <v>201.5</v>
+      </c>
+      <c r="E81">
+        <v>203.5</v>
+      </c>
+      <c r="G81">
+        <v>202.25</v>
+      </c>
+      <c r="H81">
+        <v>202.75</v>
+      </c>
+      <c r="J81">
+        <v>203.416666666666</v>
+      </c>
+      <c r="K81">
+        <v>201.583333333333</v>
+      </c>
+      <c r="M81">
+        <v>204.083333333333</v>
+      </c>
+      <c r="N81">
+        <v>200.916666666666</v>
+      </c>
+      <c r="P81">
+        <v>201.666666666666</v>
+      </c>
+      <c r="Q81">
+        <v>203.333333333333</v>
+      </c>
+      <c r="S81">
+        <v>202.166666666666</v>
+      </c>
+      <c r="T81">
         <v>202.833333333333</v>
       </c>
-      <c r="B81">
-        <v>202.166666666666</v>
-      </c>
-      <c r="D81">
-        <v>202</v>
-      </c>
-      <c r="E81">
-        <v>203</v>
-      </c>
-      <c r="G81">
+      <c r="V81">
+        <v>201.833333333333</v>
+      </c>
+      <c r="W81">
+        <v>203.166666666666</v>
+      </c>
+      <c r="Y81">
         <v>203.666666666666</v>
       </c>
-      <c r="H81">
+      <c r="Z81">
         <v>201.333333333333</v>
       </c>
-      <c r="J81">
-        <v>202.416666666666</v>
-      </c>
-      <c r="K81">
-        <v>202.583333333333</v>
-      </c>
-      <c r="M81">
-        <v>202.166666666666</v>
-      </c>
-      <c r="N81">
-        <v>202.833333333333</v>
-      </c>
-      <c r="P81">
-        <v>201.583333333333</v>
-      </c>
-      <c r="Q81">
-        <v>203.416666666666</v>
-      </c>
-      <c r="S81">
-        <v>201.333333333333</v>
-      </c>
-      <c r="T81">
-        <v>203.666666666666</v>
-      </c>
-      <c r="V81">
-        <v>200.666666666666</v>
-      </c>
-      <c r="W81">
-        <v>204.333333333333</v>
-      </c>
-      <c r="Y81">
-        <v>200.666666666666</v>
-      </c>
-      <c r="Z81">
-        <v>204.333333333333</v>
-      </c>
       <c r="AB81">
-        <v>204.5</v>
+        <v>202.5</v>
       </c>
       <c r="AC81">
-        <v>200.5</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
